--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995405869344665</v>
+        <v>1.01204608879443</v>
       </c>
       <c r="D2">
-        <v>1.013738416501467</v>
+        <v>1.031042529356564</v>
       </c>
       <c r="E2">
-        <v>1.002960352604546</v>
+        <v>1.016184367149507</v>
       </c>
       <c r="F2">
-        <v>1.003135307926225</v>
+        <v>1.035200433364967</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042628460525431</v>
+        <v>1.048000461702939</v>
       </c>
       <c r="J2">
-        <v>1.017724863758706</v>
+        <v>1.033872377556423</v>
       </c>
       <c r="K2">
-        <v>1.025009614707965</v>
+        <v>1.042085690881059</v>
       </c>
       <c r="L2">
-        <v>1.014378598510241</v>
+        <v>1.027422740246017</v>
       </c>
       <c r="M2">
-        <v>1.014551135067536</v>
+        <v>1.046190221108232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003149789635955</v>
+        <v>1.019392766397942</v>
       </c>
       <c r="D3">
-        <v>1.019608104206488</v>
+        <v>1.036800055482852</v>
       </c>
       <c r="E3">
-        <v>1.009570550793759</v>
+        <v>1.022324236374022</v>
       </c>
       <c r="F3">
-        <v>1.010880304975045</v>
+        <v>1.041505194322402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045354850020746</v>
+        <v>1.050372411144067</v>
       </c>
       <c r="J3">
-        <v>1.0235549549568</v>
+        <v>1.039368372035297</v>
       </c>
       <c r="K3">
-        <v>1.029996095397647</v>
+        <v>1.046982767412519</v>
       </c>
       <c r="L3">
-        <v>1.020082421853322</v>
+        <v>1.032679225521467</v>
       </c>
       <c r="M3">
-        <v>1.021375837651884</v>
+        <v>1.051633184803076</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008001262217252</v>
+        <v>1.024009551200484</v>
       </c>
       <c r="D4">
-        <v>1.023287270205985</v>
+        <v>1.040420817466936</v>
       </c>
       <c r="E4">
-        <v>1.013717328854457</v>
+        <v>1.026188299674634</v>
       </c>
       <c r="F4">
-        <v>1.015740309108474</v>
+        <v>1.045472793626249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047047562095349</v>
+        <v>1.051851236377644</v>
       </c>
       <c r="J4">
-        <v>1.02720248600476</v>
+        <v>1.042818410903745</v>
       </c>
       <c r="K4">
-        <v>1.033112533393558</v>
+        <v>1.050054698240128</v>
       </c>
       <c r="L4">
-        <v>1.023652969535656</v>
+        <v>1.035980604372626</v>
       </c>
       <c r="M4">
-        <v>1.02565240292784</v>
+        <v>1.055051712698788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01000491438646</v>
+        <v>1.025919431279038</v>
       </c>
       <c r="D5">
-        <v>1.024807090604246</v>
+        <v>1.041919185568438</v>
       </c>
       <c r="E5">
-        <v>1.015431184020181</v>
+        <v>1.027788060300806</v>
       </c>
       <c r="F5">
-        <v>1.01774931671304</v>
+        <v>1.047115348718023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047742899424505</v>
+        <v>1.052460116269123</v>
       </c>
       <c r="J5">
-        <v>1.028707654845197</v>
+        <v>1.044244663890207</v>
       </c>
       <c r="K5">
-        <v>1.034397725808906</v>
+        <v>1.051324103059639</v>
       </c>
       <c r="L5">
-        <v>1.025126846313308</v>
+        <v>1.0373457966106</v>
       </c>
       <c r="M5">
-        <v>1.027418789911827</v>
+        <v>1.056465341424302</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010339292339271</v>
+        <v>1.026238338932285</v>
       </c>
       <c r="D6">
-        <v>1.025060740676335</v>
+        <v>1.042169407734415</v>
       </c>
       <c r="E6">
-        <v>1.015717269788165</v>
+        <v>1.028055256935849</v>
       </c>
       <c r="F6">
-        <v>1.018084694695294</v>
+        <v>1.04738968848559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047858717658566</v>
+        <v>1.052561614354851</v>
       </c>
       <c r="J6">
-        <v>1.028958767930812</v>
+        <v>1.044482757874657</v>
       </c>
       <c r="K6">
-        <v>1.034612090448249</v>
+        <v>1.051535981066085</v>
       </c>
       <c r="L6">
-        <v>1.025372766580986</v>
+        <v>1.037573720318322</v>
       </c>
       <c r="M6">
-        <v>1.027713580372089</v>
+        <v>1.056701350953179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008028173386859</v>
+        <v>1.024035190732344</v>
       </c>
       <c r="D7">
-        <v>1.023307681852248</v>
+        <v>1.040440930640773</v>
       </c>
       <c r="E7">
-        <v>1.013740342949942</v>
+        <v>1.026209771049</v>
       </c>
       <c r="F7">
-        <v>1.015767285020252</v>
+        <v>1.045494839667628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047056916154283</v>
+        <v>1.051859421888192</v>
       </c>
       <c r="J7">
-        <v>1.02722270708094</v>
+        <v>1.042837561802476</v>
       </c>
       <c r="K7">
-        <v>1.033129802491555</v>
+        <v>1.050071745229781</v>
       </c>
       <c r="L7">
-        <v>1.023672768347444</v>
+        <v>1.035998933829138</v>
       </c>
       <c r="M7">
-        <v>1.02567612677728</v>
+        <v>1.055070692524019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980573778954053</v>
+        <v>1.014558421877978</v>
       </c>
       <c r="D8">
-        <v>1.015747715756525</v>
+        <v>1.033010800432757</v>
       </c>
       <c r="E8">
-        <v>1.005222437810991</v>
+        <v>1.01828275861278</v>
       </c>
       <c r="F8">
-        <v>1.005785489934831</v>
+        <v>1.037355220256717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043565170365396</v>
+        <v>1.048814032214954</v>
       </c>
       <c r="J8">
-        <v>1.019722081954637</v>
+        <v>1.0357525818899</v>
       </c>
       <c r="K8">
-        <v>1.026718517034823</v>
+        <v>1.043761441078135</v>
       </c>
       <c r="L8">
-        <v>1.016332129523481</v>
+        <v>1.029220644741875</v>
       </c>
       <c r="M8">
-        <v>1.01688765926123</v>
+        <v>1.048051892429133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9791541170139871</v>
+        <v>0.9967212675008543</v>
       </c>
       <c r="D9">
-        <v>1.001436714102685</v>
+        <v>1.019052613825333</v>
       </c>
       <c r="E9">
-        <v>0.9891241496568089</v>
+        <v>1.00341310649943</v>
       </c>
       <c r="F9">
-        <v>0.9869283676479719</v>
+        <v>1.022085544123362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036823654290257</v>
+        <v>1.04298992335183</v>
       </c>
       <c r="J9">
-        <v>1.005465098971324</v>
+        <v>1.022390339907846</v>
       </c>
       <c r="K9">
-        <v>1.014506524550655</v>
+        <v>1.031843957748838</v>
       </c>
       <c r="L9">
-        <v>1.002396179441317</v>
+        <v>1.016451050086497</v>
       </c>
       <c r="M9">
-        <v>1.000237144000695</v>
+        <v>1.034830180501737</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9654750955055494</v>
+        <v>0.9839256944841858</v>
       </c>
       <c r="D10">
-        <v>0.9911057247437751</v>
+        <v>1.009066534385521</v>
       </c>
       <c r="E10">
-        <v>0.9775175676467076</v>
+        <v>0.9927881694106774</v>
       </c>
       <c r="F10">
-        <v>0.9733332254007346</v>
+        <v>1.011175063336156</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031867563409974</v>
+        <v>1.038754068619879</v>
       </c>
       <c r="J10">
-        <v>0.99512878277245</v>
+        <v>1.012791910201233</v>
       </c>
       <c r="K10">
-        <v>1.00563744671112</v>
+        <v>1.023273996831951</v>
       </c>
       <c r="L10">
-        <v>0.9923049710135385</v>
+        <v>1.007288868089414</v>
       </c>
       <c r="M10">
-        <v>0.9882012477384577</v>
+        <v>1.025345437984203</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9592482335060627</v>
+        <v>0.9781342537461349</v>
       </c>
       <c r="D11">
-        <v>0.9864114963927157</v>
+        <v>1.004555310956976</v>
       </c>
       <c r="E11">
-        <v>0.9722464051566134</v>
+        <v>0.9879910490514546</v>
       </c>
       <c r="F11">
-        <v>0.9671578036407354</v>
+        <v>1.006249378715402</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02959439838113</v>
+        <v>1.036824337492198</v>
       </c>
       <c r="J11">
-        <v>0.9904204099482596</v>
+        <v>1.008445838922592</v>
       </c>
       <c r="K11">
-        <v>1.001594303760752</v>
+        <v>1.019391829069424</v>
       </c>
       <c r="L11">
-        <v>0.9877114051276479</v>
+        <v>1.003143046578095</v>
       </c>
       <c r="M11">
-        <v>0.9827268408654894</v>
+        <v>1.02105439544005</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9568848057651071</v>
+        <v>0.9759417824700704</v>
       </c>
       <c r="D12">
-        <v>0.9846313306417672</v>
+        <v>1.002848998363052</v>
       </c>
       <c r="E12">
-        <v>0.9702477766168542</v>
+        <v>0.9861769651574285</v>
       </c>
       <c r="F12">
-        <v>0.9648160159997052</v>
+        <v>1.004386758680385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028729176520242</v>
+        <v>1.036092031969476</v>
       </c>
       <c r="J12">
-        <v>0.9886330020044515</v>
+        <v>1.006800420225253</v>
       </c>
       <c r="K12">
-        <v>1.000059014455055</v>
+        <v>1.01792181885264</v>
       </c>
       <c r="L12">
-        <v>0.9859680768886313</v>
+        <v>1.001573872378083</v>
       </c>
       <c r="M12">
-        <v>0.9806498222747041</v>
+        <v>1.019430395144883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9573941400155421</v>
+        <v>0.9764140052964441</v>
       </c>
       <c r="D13">
-        <v>0.9850148938900374</v>
+        <v>1.00321643886699</v>
       </c>
       <c r="E13">
-        <v>0.9706783976058532</v>
+        <v>0.9865675975384099</v>
       </c>
       <c r="F13">
-        <v>0.9653205890556888</v>
+        <v>1.00478783831937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028915745016791</v>
+        <v>1.036249836390355</v>
       </c>
       <c r="J13">
-        <v>0.9890182124670714</v>
+        <v>1.007154820010513</v>
       </c>
       <c r="K13">
-        <v>1.000389907940303</v>
+        <v>1.018238447580295</v>
       </c>
       <c r="L13">
-        <v>0.986343764801377</v>
+        <v>1.001911830403823</v>
       </c>
       <c r="M13">
-        <v>0.9810973944124222</v>
+        <v>1.019780154450612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9590539325942831</v>
+        <v>0.9779538877068086</v>
       </c>
       <c r="D14">
-        <v>0.9862651134121536</v>
+        <v>1.004414907457479</v>
       </c>
       <c r="E14">
-        <v>0.9720820518795759</v>
+        <v>0.9878417704553704</v>
       </c>
       <c r="F14">
-        <v>0.9669652381603302</v>
+        <v>1.006096104309793</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029523315688813</v>
+        <v>1.03676412865968</v>
       </c>
       <c r="J14">
-        <v>0.9902734702287999</v>
+        <v>1.008310478423725</v>
       </c>
       <c r="K14">
-        <v>1.001468098435613</v>
+        <v>1.019270902868342</v>
       </c>
       <c r="L14">
-        <v>0.9875680789311377</v>
+        <v>1.003013949486546</v>
       </c>
       <c r="M14">
-        <v>0.9825560687630667</v>
+        <v>1.020920784761694</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9600697369344112</v>
+        <v>0.9788970760382719</v>
       </c>
       <c r="D15">
-        <v>0.9870304673602586</v>
+        <v>1.005149182142106</v>
       </c>
       <c r="E15">
-        <v>0.9729413750672726</v>
+        <v>0.9886224742488845</v>
       </c>
       <c r="F15">
-        <v>0.9679720563376351</v>
+        <v>1.006897709067791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02989483773335</v>
+        <v>1.037078907761108</v>
       </c>
       <c r="J15">
-        <v>0.9910416580449792</v>
+        <v>1.009018315088495</v>
       </c>
       <c r="K15">
-        <v>1.00212787202388</v>
+        <v>1.01990324980321</v>
       </c>
       <c r="L15">
-        <v>0.9883173958561878</v>
+        <v>1.003689050711474</v>
       </c>
       <c r="M15">
-        <v>0.9834488984237932</v>
+        <v>1.021619495214023</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9658815535385165</v>
+        <v>0.9843044724067455</v>
       </c>
       <c r="D16">
-        <v>0.9914123379814395</v>
+        <v>1.009361777579544</v>
       </c>
       <c r="E16">
-        <v>0.9778619135027929</v>
+        <v>0.9931021762252528</v>
       </c>
       <c r="F16">
-        <v>0.9737366093634607</v>
+        <v>1.011497495323302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032015602171117</v>
+        <v>1.038880029223404</v>
       </c>
       <c r="J16">
-        <v>0.9954360682103609</v>
+        <v>1.013076132217042</v>
       </c>
       <c r="K16">
-        <v>1.005901256539953</v>
+        <v>1.023527847401182</v>
       </c>
       <c r="L16">
-        <v>0.9926048306536348</v>
+        <v>1.007560052314133</v>
       </c>
       <c r="M16">
-        <v>0.98855869305726</v>
+        <v>1.025626138900979</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9694426173305988</v>
+        <v>0.9876268357739174</v>
       </c>
       <c r="D17">
-        <v>0.994099631858676</v>
+        <v>1.011952429266298</v>
       </c>
       <c r="E17">
-        <v>0.9808802053675402</v>
+        <v>0.9958577731439453</v>
       </c>
       <c r="F17">
-        <v>0.9772722447852981</v>
+        <v>1.014327071589086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033310692923868</v>
+        <v>1.03998346292843</v>
       </c>
       <c r="J17">
-        <v>0.9981279211092979</v>
+        <v>1.015568942994981</v>
       </c>
       <c r="K17">
-        <v>1.008211912924362</v>
+        <v>1.025754085147571</v>
       </c>
       <c r="L17">
-        <v>0.9952319899383955</v>
+        <v>1.00993882250932</v>
       </c>
       <c r="M17">
-        <v>0.9916908651830024</v>
+        <v>1.028088473600975</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9714907811785738</v>
+        <v>0.9895407734466282</v>
       </c>
       <c r="D18">
-        <v>0.9956460264009638</v>
+        <v>1.013445637970731</v>
       </c>
       <c r="E18">
-        <v>0.9826173275899275</v>
+        <v>0.9974463111068873</v>
       </c>
       <c r="F18">
-        <v>0.9793070156935367</v>
+        <v>1.015958288600846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034053961640151</v>
+        <v>1.04061794070571</v>
       </c>
       <c r="J18">
-        <v>0.9996758485726606</v>
+        <v>1.017004825456213</v>
       </c>
       <c r="K18">
-        <v>1.009540340724398</v>
+        <v>1.027036249233102</v>
       </c>
       <c r="L18">
-        <v>0.9967430096458169</v>
+        <v>1.011309270621538</v>
       </c>
       <c r="M18">
-        <v>0.9934927597873026</v>
+        <v>1.029507131638515</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9721843787586844</v>
+        <v>0.990189417382439</v>
       </c>
       <c r="D19">
-        <v>0.9961698288879139</v>
+        <v>1.013951823228496</v>
       </c>
       <c r="E19">
-        <v>0.9832057798658018</v>
+        <v>0.9979848570300694</v>
       </c>
       <c r="F19">
-        <v>0.9799962834868807</v>
+        <v>1.016511308161665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034305388162251</v>
+        <v>1.040832764385183</v>
       </c>
       <c r="J19">
-        <v>1.000199988518702</v>
+        <v>1.017491421525262</v>
       </c>
       <c r="K19">
-        <v>1.009990104833862</v>
+        <v>1.027470722792444</v>
       </c>
       <c r="L19">
-        <v>0.9972547015781601</v>
+        <v>1.011773734619838</v>
       </c>
       <c r="M19">
-        <v>0.9941030256193785</v>
+        <v>1.02998794522557</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9690635755738284</v>
+        <v>0.9872728783409651</v>
       </c>
       <c r="D20">
-        <v>0.9938135114560006</v>
+        <v>1.011676342927719</v>
       </c>
       <c r="E20">
-        <v>0.9805588169922738</v>
+        <v>0.9955640820704723</v>
       </c>
       <c r="F20">
-        <v>0.9768957806644232</v>
+        <v>1.014025492330436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033173009152579</v>
+        <v>1.039866027867406</v>
       </c>
       <c r="J20">
-        <v>0.9978414294668271</v>
+        <v>1.015303380969212</v>
       </c>
       <c r="K20">
-        <v>1.00796602212852</v>
+        <v>1.025516938821718</v>
       </c>
       <c r="L20">
-        <v>0.9949523528851631</v>
+        <v>1.009685382806887</v>
       </c>
       <c r="M20">
-        <v>0.9913574313594323</v>
+        <v>1.027826123578775</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9585666016148506</v>
+        <v>0.977501601147713</v>
       </c>
       <c r="D21">
-        <v>0.9858979923612314</v>
+        <v>1.004062856086597</v>
       </c>
       <c r="E21">
-        <v>0.9716698671829834</v>
+        <v>0.9874674711688316</v>
       </c>
       <c r="F21">
-        <v>0.9664822943063774</v>
+        <v>1.005711787398394</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029344992783597</v>
+        <v>1.036613120799397</v>
       </c>
       <c r="J21">
-        <v>0.9899049222949844</v>
+        <v>1.007971046438686</v>
       </c>
       <c r="K21">
-        <v>1.001151549090493</v>
+        <v>1.018967663074449</v>
       </c>
       <c r="L21">
-        <v>0.9872086023371511</v>
+        <v>1.002690230706562</v>
       </c>
       <c r="M21">
-        <v>0.9821277645315641</v>
+        <v>1.02058575023482</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516716232632447</v>
+        <v>0.9711170897008677</v>
       </c>
       <c r="D22">
-        <v>0.9807078618503176</v>
+        <v>0.9990971681577222</v>
       </c>
       <c r="E22">
-        <v>0.9658433242773444</v>
+        <v>0.982188792773743</v>
       </c>
       <c r="F22">
-        <v>0.9596546278020462</v>
+        <v>1.000292067186247</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026816361168974</v>
+        <v>1.034477423800729</v>
       </c>
       <c r="J22">
-        <v>0.9846899600333251</v>
+        <v>1.003179491591788</v>
       </c>
       <c r="K22">
-        <v>0.9966714384809077</v>
+        <v>1.014686531564981</v>
       </c>
       <c r="L22">
-        <v>0.98212321980398</v>
+        <v>0.9981215477783846</v>
       </c>
       <c r="M22">
-        <v>0.976070063870608</v>
+        <v>1.015857740388232</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553565772814226</v>
+        <v>0.9745257996874696</v>
       </c>
       <c r="D23">
-        <v>0.9834807191956476</v>
+        <v>1.001747448815068</v>
       </c>
       <c r="E23">
-        <v>0.9689560427391316</v>
+        <v>0.9850059388740053</v>
       </c>
       <c r="F23">
-        <v>0.9633023938823968</v>
+        <v>1.003184428268858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028169042734449</v>
+        <v>1.035618598770337</v>
       </c>
       <c r="J23">
-        <v>0.9874771640544172</v>
+        <v>1.005737728628538</v>
       </c>
       <c r="K23">
-        <v>0.99906609952557</v>
+        <v>1.016972356808533</v>
       </c>
       <c r="L23">
-        <v>0.9848408863558868</v>
+        <v>1.00056054733436</v>
       </c>
       <c r="M23">
-        <v>0.9793070382861464</v>
+        <v>1.01838170828029</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9692349373159109</v>
+        <v>0.987432890187536</v>
       </c>
       <c r="D24">
-        <v>0.9939428617802567</v>
+        <v>1.011801149511388</v>
       </c>
       <c r="E24">
-        <v>0.9807041105852641</v>
+        <v>0.9956968461834526</v>
       </c>
       <c r="F24">
-        <v>0.9770659732562667</v>
+        <v>1.01416182222981</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033235259894957</v>
+        <v>1.039919119865013</v>
       </c>
       <c r="J24">
-        <v>0.9979709510033001</v>
+        <v>1.015423432860601</v>
       </c>
       <c r="K24">
-        <v>1.008077189134744</v>
+        <v>1.025624145436735</v>
       </c>
       <c r="L24">
-        <v>0.99507877458212</v>
+        <v>1.009799953805219</v>
       </c>
       <c r="M24">
-        <v>0.9915081728558879</v>
+        <v>1.027944722406867</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9842162567716323</v>
+        <v>1.001480813306763</v>
       </c>
       <c r="D25">
-        <v>1.00526563689281</v>
+        <v>1.022773204325262</v>
       </c>
       <c r="E25">
-        <v>0.9934285417956837</v>
+        <v>1.00737426559582</v>
       </c>
       <c r="F25">
-        <v>0.9919699645727944</v>
+        <v>1.026153302807963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038642546602551</v>
+        <v>1.044554207188716</v>
       </c>
       <c r="J25">
-        <v>1.009286737953783</v>
+        <v>1.025958444739626</v>
       </c>
       <c r="K25">
-        <v>1.01778275689775</v>
+        <v>1.035027990200323</v>
       </c>
       <c r="L25">
-        <v>1.006129735017443</v>
+        <v>1.019859174090286</v>
       </c>
       <c r="M25">
-        <v>1.004694228786516</v>
+        <v>1.038358748714349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01204608879443</v>
+        <v>0.9933185500315571</v>
       </c>
       <c r="D2">
-        <v>1.031042529356564</v>
+        <v>1.014608082785909</v>
       </c>
       <c r="E2">
-        <v>1.016184367149507</v>
+        <v>1.000649767249437</v>
       </c>
       <c r="F2">
-        <v>1.035200433364967</v>
+        <v>1.014324213285784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048000461702939</v>
+        <v>1.040730325321009</v>
       </c>
       <c r="J2">
-        <v>1.033872377556423</v>
+        <v>1.015700955316581</v>
       </c>
       <c r="K2">
-        <v>1.042085690881059</v>
+        <v>1.025867587123762</v>
       </c>
       <c r="L2">
-        <v>1.027422740246017</v>
+        <v>1.012100057198462</v>
       </c>
       <c r="M2">
-        <v>1.046190221108232</v>
+        <v>1.025587531871989</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019392766397942</v>
+        <v>0.9978058593112606</v>
       </c>
       <c r="D3">
-        <v>1.036800055482852</v>
+        <v>1.017880097440372</v>
       </c>
       <c r="E3">
-        <v>1.022324236374022</v>
+        <v>1.004224574086679</v>
       </c>
       <c r="F3">
-        <v>1.041505194322402</v>
+        <v>1.01835924305234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050372411144067</v>
+        <v>1.041645652255655</v>
       </c>
       <c r="J3">
-        <v>1.039368372035297</v>
+        <v>1.018356518057173</v>
       </c>
       <c r="K3">
-        <v>1.046982767412519</v>
+        <v>1.028289198556893</v>
       </c>
       <c r="L3">
-        <v>1.032679225521467</v>
+        <v>1.014803684575204</v>
       </c>
       <c r="M3">
-        <v>1.051633184803076</v>
+        <v>1.028762481836191</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024009551200484</v>
+        <v>1.000651908641663</v>
       </c>
       <c r="D4">
-        <v>1.040420817466936</v>
+        <v>1.019957708534688</v>
       </c>
       <c r="E4">
-        <v>1.026188299674634</v>
+        <v>1.006498144478465</v>
       </c>
       <c r="F4">
-        <v>1.045472793626249</v>
+        <v>1.020923672418743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051851236377644</v>
+        <v>1.042215449173462</v>
       </c>
       <c r="J4">
-        <v>1.042818410903745</v>
+        <v>1.020038953217502</v>
       </c>
       <c r="K4">
-        <v>1.050054698240128</v>
+        <v>1.029821084011674</v>
       </c>
       <c r="L4">
-        <v>1.035980604372626</v>
+        <v>1.016518770211743</v>
       </c>
       <c r="M4">
-        <v>1.055051712698788</v>
+        <v>1.030775959258985</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025919431279038</v>
+        <v>1.001835096979143</v>
       </c>
       <c r="D5">
-        <v>1.041919185568438</v>
+        <v>1.020821937925186</v>
       </c>
       <c r="E5">
-        <v>1.027788060300806</v>
+        <v>1.007444794086867</v>
       </c>
       <c r="F5">
-        <v>1.047115348718023</v>
+        <v>1.021990989345906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052460116269123</v>
+        <v>1.042449709340826</v>
       </c>
       <c r="J5">
-        <v>1.044244663890207</v>
+        <v>1.02073791381736</v>
       </c>
       <c r="K5">
-        <v>1.051324103059639</v>
+        <v>1.030456923862883</v>
       </c>
       <c r="L5">
-        <v>1.0373457966106</v>
+        <v>1.017231822390594</v>
       </c>
       <c r="M5">
-        <v>1.056465341424302</v>
+        <v>1.031612920806985</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026238338932285</v>
+        <v>1.002032993772526</v>
       </c>
       <c r="D6">
-        <v>1.042169407734415</v>
+        <v>1.02096651441447</v>
       </c>
       <c r="E6">
-        <v>1.028055256935849</v>
+        <v>1.007603212456427</v>
       </c>
       <c r="F6">
-        <v>1.04738968848559</v>
+        <v>1.022169575320225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052561614354851</v>
+        <v>1.042488735687496</v>
       </c>
       <c r="J6">
-        <v>1.044482757874657</v>
+        <v>1.020854790855227</v>
       </c>
       <c r="K6">
-        <v>1.051535981066085</v>
+        <v>1.030563211823259</v>
       </c>
       <c r="L6">
-        <v>1.037573720318322</v>
+        <v>1.017351086733474</v>
       </c>
       <c r="M6">
-        <v>1.056701350953179</v>
+        <v>1.031752901279062</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024035190732344</v>
+        <v>1.000667770061353</v>
       </c>
       <c r="D7">
-        <v>1.040440930640773</v>
+        <v>1.019969292188119</v>
       </c>
       <c r="E7">
-        <v>1.026209771049</v>
+        <v>1.00651082924182</v>
       </c>
       <c r="F7">
-        <v>1.045494839667628</v>
+        <v>1.020937975804621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051859421888192</v>
+        <v>1.04221859999705</v>
       </c>
       <c r="J7">
-        <v>1.042837561802476</v>
+        <v>1.020048325182267</v>
       </c>
       <c r="K7">
-        <v>1.050071745229781</v>
+        <v>1.029829611921736</v>
       </c>
       <c r="L7">
-        <v>1.035998933829138</v>
+        <v>1.016528329040565</v>
       </c>
       <c r="M7">
-        <v>1.055070692524019</v>
+        <v>1.030787179746128</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014558421877978</v>
+        <v>0.994847270487875</v>
       </c>
       <c r="D8">
-        <v>1.033010800432757</v>
+        <v>1.015722249337544</v>
       </c>
       <c r="E8">
-        <v>1.01828275861278</v>
+        <v>1.001866276303836</v>
       </c>
       <c r="F8">
-        <v>1.037355220256717</v>
+        <v>1.015697724286922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048814032214954</v>
+        <v>1.041044380676539</v>
       </c>
       <c r="J8">
-        <v>1.0357525818899</v>
+        <v>1.016606005690125</v>
       </c>
       <c r="K8">
-        <v>1.043761441078135</v>
+        <v>1.026693382317178</v>
       </c>
       <c r="L8">
-        <v>1.029220644741875</v>
+        <v>1.013021026898129</v>
       </c>
       <c r="M8">
-        <v>1.048051892429133</v>
+        <v>1.026669176726211</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967212675008543</v>
+        <v>0.9841271001331986</v>
       </c>
       <c r="D9">
-        <v>1.019052613825333</v>
+        <v>1.007921747764472</v>
       </c>
       <c r="E9">
-        <v>1.00341310649943</v>
+        <v>0.9933640880690837</v>
       </c>
       <c r="F9">
-        <v>1.022085544123362</v>
+        <v>1.006090313386321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04298992335183</v>
+        <v>1.038798342541081</v>
       </c>
       <c r="J9">
-        <v>1.022390339907846</v>
+        <v>1.01025309736967</v>
       </c>
       <c r="K9">
-        <v>1.031843957748838</v>
+        <v>1.020887594435561</v>
       </c>
       <c r="L9">
-        <v>1.016451050086497</v>
+        <v>1.006565753714736</v>
       </c>
       <c r="M9">
-        <v>1.034830180501737</v>
+        <v>1.019085346313138</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839256944841858</v>
+        <v>0.9766343103045195</v>
       </c>
       <c r="D10">
-        <v>1.009066534385521</v>
+        <v>1.002488693626621</v>
       </c>
       <c r="E10">
-        <v>0.9927881694106774</v>
+        <v>0.9874602422951277</v>
       </c>
       <c r="F10">
-        <v>1.011175063336156</v>
+        <v>0.9994087561464038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038754068619879</v>
+        <v>1.037174981890823</v>
       </c>
       <c r="J10">
-        <v>1.012791910201233</v>
+        <v>1.005806656080876</v>
       </c>
       <c r="K10">
-        <v>1.023273996831951</v>
+        <v>1.016813158856744</v>
       </c>
       <c r="L10">
-        <v>1.007288868089414</v>
+        <v>1.002059658128933</v>
       </c>
       <c r="M10">
-        <v>1.025345437984203</v>
+        <v>1.013788693895439</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9781342537461349</v>
+        <v>0.9732994938378704</v>
       </c>
       <c r="D11">
-        <v>1.004555310956976</v>
+        <v>1.000076156296972</v>
       </c>
       <c r="E11">
-        <v>0.9879910490514546</v>
+        <v>0.9848426108474007</v>
       </c>
       <c r="F11">
-        <v>1.006249378715402</v>
+        <v>0.9964438085049375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036824337492198</v>
+        <v>1.036440454794059</v>
       </c>
       <c r="J11">
-        <v>1.008445838922592</v>
+        <v>1.003826832927646</v>
       </c>
       <c r="K11">
-        <v>1.019391829069424</v>
+        <v>1.014996636564652</v>
       </c>
       <c r="L11">
-        <v>1.003143046578095</v>
+        <v>1.000056148401553</v>
       </c>
       <c r="M11">
-        <v>1.02105439544005</v>
+        <v>1.011433102450287</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9759417824700704</v>
+        <v>0.972046452032701</v>
       </c>
       <c r="D12">
-        <v>1.002848998363052</v>
+        <v>0.999170583262085</v>
       </c>
       <c r="E12">
-        <v>0.9861769651574285</v>
+        <v>0.9838606226223832</v>
       </c>
       <c r="F12">
-        <v>1.004386758680385</v>
+        <v>0.9953311460938566</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036092031969476</v>
+        <v>1.036162713802639</v>
       </c>
       <c r="J12">
-        <v>1.006800420225253</v>
+        <v>1.003082850710506</v>
       </c>
       <c r="K12">
-        <v>1.01792181885264</v>
+        <v>1.014313690857408</v>
       </c>
       <c r="L12">
-        <v>1.001573872378083</v>
+        <v>0.9993037002570668</v>
       </c>
       <c r="M12">
-        <v>1.019430395144883</v>
+        <v>1.010548343962762</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9764140052964441</v>
+        <v>0.9723158956154353</v>
       </c>
       <c r="D13">
-        <v>1.00321643886699</v>
+        <v>0.9993652666774133</v>
       </c>
       <c r="E13">
-        <v>0.9865675975384099</v>
+        <v>0.9840717087577959</v>
       </c>
       <c r="F13">
-        <v>1.00478783831937</v>
+        <v>0.9955703389732511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036249836390355</v>
+        <v>1.036222514788417</v>
       </c>
       <c r="J13">
-        <v>1.007154820010513</v>
+        <v>1.003242832791646</v>
       </c>
       <c r="K13">
-        <v>1.018238447580295</v>
+        <v>1.014460562463761</v>
       </c>
       <c r="L13">
-        <v>1.001911830403823</v>
+        <v>0.9994654830960041</v>
       </c>
       <c r="M13">
-        <v>1.019780154450612</v>
+        <v>1.010738578202341</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9779538877068086</v>
+        <v>0.9731962141924132</v>
       </c>
       <c r="D14">
-        <v>1.004414907457479</v>
+        <v>1.000001496735041</v>
       </c>
       <c r="E14">
-        <v>0.9878417704553704</v>
+        <v>0.9847616398474588</v>
       </c>
       <c r="F14">
-        <v>1.006096104309793</v>
+        <v>0.9963520703847494</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03676412865968</v>
+        <v>1.036417597642775</v>
       </c>
       <c r="J14">
-        <v>1.008310478423725</v>
+        <v>1.003765512734048</v>
       </c>
       <c r="K14">
-        <v>1.019270902868342</v>
+        <v>1.014940353653776</v>
       </c>
       <c r="L14">
-        <v>1.003013949486546</v>
+        <v>0.9999941215701876</v>
       </c>
       <c r="M14">
-        <v>1.020920784761694</v>
+        <v>1.011360170433748</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9788970760382719</v>
+        <v>0.9737366832906835</v>
       </c>
       <c r="D15">
-        <v>1.005149182142106</v>
+        <v>1.000392233411771</v>
       </c>
       <c r="E15">
-        <v>0.9886224742488845</v>
+        <v>0.9851854309870798</v>
       </c>
       <c r="F15">
-        <v>1.006897709067791</v>
+        <v>0.9968321995982227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037078907761108</v>
+        <v>1.036537139795495</v>
       </c>
       <c r="J15">
-        <v>1.009018315088495</v>
+        <v>1.004086402651683</v>
       </c>
       <c r="K15">
-        <v>1.01990324980321</v>
+        <v>1.015234870082571</v>
       </c>
       <c r="L15">
-        <v>1.003689050711474</v>
+        <v>1.000318727092675</v>
       </c>
       <c r="M15">
-        <v>1.021619495214023</v>
+        <v>1.011741842899045</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9843044724067455</v>
+        <v>0.9768536628119528</v>
       </c>
       <c r="D16">
-        <v>1.009361777579544</v>
+        <v>1.002647505264533</v>
       </c>
       <c r="E16">
-        <v>0.9931021762252528</v>
+        <v>0.9876326352378995</v>
       </c>
       <c r="F16">
-        <v>1.011497495323302</v>
+        <v>0.9996039701946128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038880029223404</v>
+        <v>1.037223051057039</v>
       </c>
       <c r="J16">
-        <v>1.013076132217042</v>
+        <v>1.005936868790625</v>
       </c>
       <c r="K16">
-        <v>1.023527847401182</v>
+        <v>1.016932584429526</v>
       </c>
       <c r="L16">
-        <v>1.007560052314133</v>
+        <v>1.002191488861158</v>
       </c>
       <c r="M16">
-        <v>1.025626138900979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.013943679982646</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9876268357739174</v>
+        <v>0.9787841401299464</v>
       </c>
       <c r="D17">
-        <v>1.011952429266298</v>
+        <v>1.004045817572849</v>
       </c>
       <c r="E17">
-        <v>0.9958577731439453</v>
+        <v>0.9891509772480406</v>
       </c>
       <c r="F17">
-        <v>1.014327071589086</v>
+        <v>1.001323022422463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03998346292843</v>
+        <v>1.037644736850093</v>
       </c>
       <c r="J17">
-        <v>1.015568942994981</v>
+        <v>1.007082754783362</v>
       </c>
       <c r="K17">
-        <v>1.025754085147571</v>
+        <v>1.017983278882979</v>
       </c>
       <c r="L17">
-        <v>1.00993882250932</v>
+        <v>1.003351941256849</v>
       </c>
       <c r="M17">
-        <v>1.028088473600975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.015307893961646</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9895407734466282</v>
+        <v>0.9799014878975101</v>
       </c>
       <c r="D18">
-        <v>1.013445637970731</v>
+        <v>1.004855672367722</v>
       </c>
       <c r="E18">
-        <v>0.9974463111068873</v>
+        <v>0.9900307272816463</v>
       </c>
       <c r="F18">
-        <v>1.015958288600846</v>
+        <v>1.002318829831062</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04061794070571</v>
+        <v>1.037887661148076</v>
       </c>
       <c r="J18">
-        <v>1.017004825456213</v>
+        <v>1.00774590226022</v>
       </c>
       <c r="K18">
-        <v>1.027036249233102</v>
+        <v>1.018591113673917</v>
       </c>
       <c r="L18">
-        <v>1.011309270621538</v>
+        <v>1.004023791209746</v>
       </c>
       <c r="M18">
-        <v>1.029507131638515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.016097656936201</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.990189417382439</v>
+        <v>0.9802810268335614</v>
       </c>
       <c r="D19">
-        <v>1.013951823228496</v>
+        <v>1.00513084821128</v>
       </c>
       <c r="E19">
-        <v>0.9979848570300694</v>
+        <v>0.9903297173164671</v>
       </c>
       <c r="F19">
-        <v>1.016511308161665</v>
+        <v>1.002657222829163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040832764385183</v>
+        <v>1.037969981377235</v>
       </c>
       <c r="J19">
-        <v>1.017491421525262</v>
+        <v>1.007971143346999</v>
       </c>
       <c r="K19">
-        <v>1.027470722792444</v>
+        <v>1.018797529005166</v>
       </c>
       <c r="L19">
-        <v>1.011773734619838</v>
+        <v>1.004252034286781</v>
       </c>
       <c r="M19">
-        <v>1.02998794522557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.016365948151795</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9872728783409651</v>
+        <v>0.9785779199929945</v>
       </c>
       <c r="D20">
-        <v>1.011676342927719</v>
+        <v>1.003896390446038</v>
       </c>
       <c r="E20">
-        <v>0.9955640820704723</v>
+        <v>0.9889886844111243</v>
       </c>
       <c r="F20">
-        <v>1.014025492330436</v>
+        <v>1.001139300661726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039866027867406</v>
+        <v>1.037599809281024</v>
       </c>
       <c r="J20">
-        <v>1.015303380969212</v>
+        <v>1.006960355681936</v>
       </c>
       <c r="K20">
-        <v>1.025516938821718</v>
+        <v>1.017871070795371</v>
       </c>
       <c r="L20">
-        <v>1.009685382806887</v>
+        <v>1.003227957925644</v>
       </c>
       <c r="M20">
-        <v>1.027826123578775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.015162146380221</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977501601147713</v>
+        <v>0.9729373846293068</v>
       </c>
       <c r="D21">
-        <v>1.004062856086597</v>
+        <v>0.9998144073369932</v>
       </c>
       <c r="E21">
-        <v>0.9874674711688316</v>
+        <v>0.9845587436992386</v>
       </c>
       <c r="F21">
-        <v>1.005711787398394</v>
+        <v>0.9961221879634559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036613120799397</v>
+        <v>1.036360287320735</v>
       </c>
       <c r="J21">
-        <v>1.007971046438686</v>
+        <v>1.003611836948495</v>
       </c>
       <c r="K21">
-        <v>1.018967663074449</v>
+        <v>1.014799296681716</v>
       </c>
       <c r="L21">
-        <v>1.002690230706562</v>
+        <v>0.9998386818852001</v>
       </c>
       <c r="M21">
-        <v>1.02058575023482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.011177400998909</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9711170897008677</v>
+        <v>0.9693075574059781</v>
       </c>
       <c r="D22">
-        <v>0.9990971681577222</v>
+        <v>0.997192994530364</v>
       </c>
       <c r="E22">
-        <v>0.982188792773743</v>
+        <v>0.9817171753809534</v>
       </c>
       <c r="F22">
-        <v>1.000292067186247</v>
+        <v>0.9929017624785433</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034477423800729</v>
+        <v>1.035552486488544</v>
       </c>
       <c r="J22">
-        <v>1.003179491591788</v>
+        <v>1.001456584839233</v>
       </c>
       <c r="K22">
-        <v>1.014686531564981</v>
+        <v>1.012820264596866</v>
       </c>
       <c r="L22">
-        <v>0.9981215477783846</v>
+        <v>0.9976597325102976</v>
       </c>
       <c r="M22">
-        <v>1.015857740388232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.008615160633705</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9745257996874696</v>
+        <v>0.9712399716243809</v>
       </c>
       <c r="D23">
-        <v>1.001747448815068</v>
+        <v>0.9985880131118664</v>
       </c>
       <c r="E23">
-        <v>0.9850059388740053</v>
+        <v>0.9832290503897577</v>
       </c>
       <c r="F23">
-        <v>1.003184428268858</v>
+        <v>0.9946154219358356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035618598770337</v>
+        <v>1.035983470404763</v>
       </c>
       <c r="J23">
-        <v>1.005737728628538</v>
+        <v>1.002603996732114</v>
       </c>
       <c r="K23">
-        <v>1.016972356808533</v>
+        <v>1.013874032333347</v>
       </c>
       <c r="L23">
-        <v>1.00056054733436</v>
+        <v>0.9988195203164888</v>
       </c>
       <c r="M23">
-        <v>1.01838170828029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.009979004038594</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.987432890187536</v>
+        <v>0.9786711287242397</v>
       </c>
       <c r="D24">
-        <v>1.011801149511388</v>
+        <v>1.003963927892394</v>
       </c>
       <c r="E24">
-        <v>0.9956968461834526</v>
+        <v>0.9890620356732268</v>
       </c>
       <c r="F24">
-        <v>1.01416182222981</v>
+        <v>1.001222337858381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039919119865013</v>
+        <v>1.037620119492134</v>
       </c>
       <c r="J24">
-        <v>1.015423432860601</v>
+        <v>1.007015678695541</v>
       </c>
       <c r="K24">
-        <v>1.025624145436735</v>
+        <v>1.017921788280026</v>
       </c>
       <c r="L24">
-        <v>1.009799953805219</v>
+        <v>1.003283996148261</v>
       </c>
       <c r="M24">
-        <v>1.027944722406867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.015228021823694</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001480813306763</v>
+        <v>0.9869568626863509</v>
       </c>
       <c r="D25">
-        <v>1.022773204325262</v>
+        <v>1.009977857063313</v>
       </c>
       <c r="E25">
-        <v>1.00737426559582</v>
+        <v>0.9956019612205085</v>
       </c>
       <c r="F25">
-        <v>1.026153302807963</v>
+        <v>1.008620846668069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044554207188716</v>
+        <v>1.039400660884047</v>
       </c>
       <c r="J25">
-        <v>1.025958444739626</v>
+        <v>1.011931297128487</v>
       </c>
       <c r="K25">
-        <v>1.035027990200323</v>
+        <v>1.022423229393361</v>
       </c>
       <c r="L25">
-        <v>1.019859174090286</v>
+        <v>1.008268936912412</v>
       </c>
       <c r="M25">
-        <v>1.038358748714349</v>
+        <v>1.021086793069226</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9933185500315571</v>
+        <v>1.026327809050455</v>
       </c>
       <c r="D2">
-        <v>1.014608082785909</v>
+        <v>1.033934170463273</v>
       </c>
       <c r="E2">
-        <v>1.000649767249437</v>
+        <v>1.026562891491226</v>
       </c>
       <c r="F2">
-        <v>1.014324213285784</v>
+        <v>1.041029263270843</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040730325321009</v>
+        <v>1.030972423753723</v>
       </c>
       <c r="J2">
-        <v>1.015700955316581</v>
+        <v>1.031491865453045</v>
       </c>
       <c r="K2">
-        <v>1.025867587123762</v>
+        <v>1.036735092774435</v>
       </c>
       <c r="L2">
-        <v>1.012100057198462</v>
+        <v>1.02938517384718</v>
       </c>
       <c r="M2">
-        <v>1.025587531871989</v>
+        <v>1.043809936069994</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9978058593112606</v>
+        <v>1.027284868655318</v>
       </c>
       <c r="D3">
-        <v>1.017880097440372</v>
+        <v>1.034652058386466</v>
       </c>
       <c r="E3">
-        <v>1.004224574086679</v>
+        <v>1.027375804996841</v>
       </c>
       <c r="F3">
-        <v>1.01835924305234</v>
+        <v>1.041943570300468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041645652255655</v>
+        <v>1.031104258443841</v>
       </c>
       <c r="J3">
-        <v>1.018356518057173</v>
+        <v>1.032088599008431</v>
       </c>
       <c r="K3">
-        <v>1.028289198556893</v>
+        <v>1.037262307209987</v>
       </c>
       <c r="L3">
-        <v>1.014803684575204</v>
+        <v>1.030005613419861</v>
       </c>
       <c r="M3">
-        <v>1.028762481836191</v>
+        <v>1.044534514629731</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000651908641663</v>
+        <v>1.027904694304471</v>
       </c>
       <c r="D4">
-        <v>1.019957708534688</v>
+        <v>1.035116844112886</v>
       </c>
       <c r="E4">
-        <v>1.006498144478465</v>
+        <v>1.027902660592929</v>
       </c>
       <c r="F4">
-        <v>1.020923672418743</v>
+        <v>1.042535956090852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042215449173462</v>
+        <v>1.031188277057087</v>
       </c>
       <c r="J4">
-        <v>1.020038953217502</v>
+        <v>1.032474676121379</v>
       </c>
       <c r="K4">
-        <v>1.029821084011674</v>
+        <v>1.037603044275085</v>
       </c>
       <c r="L4">
-        <v>1.016518770211743</v>
+        <v>1.030407276591723</v>
       </c>
       <c r="M4">
-        <v>1.030775959258985</v>
+        <v>1.045003503623353</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001835096979143</v>
+        <v>1.028165398288454</v>
       </c>
       <c r="D5">
-        <v>1.020821937925186</v>
+        <v>1.035312301825979</v>
       </c>
       <c r="E5">
-        <v>1.007444794086867</v>
+        <v>1.028124351883175</v>
       </c>
       <c r="F5">
-        <v>1.021990989345906</v>
+        <v>1.042785177462964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042449709340826</v>
+        <v>1.031223289755672</v>
       </c>
       <c r="J5">
-        <v>1.02073791381736</v>
+        <v>1.032636970101201</v>
       </c>
       <c r="K5">
-        <v>1.030456923862883</v>
+        <v>1.037746191859673</v>
       </c>
       <c r="L5">
-        <v>1.017231822390594</v>
+        <v>1.030576181941058</v>
       </c>
       <c r="M5">
-        <v>1.031612920806985</v>
+        <v>1.045200698402347</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002032993772526</v>
+        <v>1.028209179187396</v>
       </c>
       <c r="D6">
-        <v>1.02096651441447</v>
+        <v>1.035345123617063</v>
       </c>
       <c r="E6">
-        <v>1.007603212456427</v>
+        <v>1.028161586584383</v>
       </c>
       <c r="F6">
-        <v>1.022169575320225</v>
+        <v>1.04282703348028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042488735687496</v>
+        <v>1.031229150421788</v>
       </c>
       <c r="J6">
-        <v>1.020854790855227</v>
+        <v>1.032664219192287</v>
       </c>
       <c r="K6">
-        <v>1.030563211823259</v>
+        <v>1.03777022117406</v>
       </c>
       <c r="L6">
-        <v>1.017351086733474</v>
+        <v>1.030604544567486</v>
       </c>
       <c r="M6">
-        <v>1.031752901279062</v>
+        <v>1.045233810101291</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000667770061353</v>
+        <v>1.027908177337089</v>
       </c>
       <c r="D7">
-        <v>1.019969292188119</v>
+        <v>1.035119455587451</v>
       </c>
       <c r="E7">
-        <v>1.00651082924182</v>
+        <v>1.027905622053969</v>
       </c>
       <c r="F7">
-        <v>1.020937975804621</v>
+        <v>1.042539285484224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04221859999705</v>
+        <v>1.031188746112258</v>
       </c>
       <c r="J7">
-        <v>1.020048325182267</v>
+        <v>1.032476844753196</v>
       </c>
       <c r="K7">
-        <v>1.029829611921736</v>
+        <v>1.037604957407659</v>
       </c>
       <c r="L7">
-        <v>1.016528329040565</v>
+        <v>1.030409533333274</v>
       </c>
       <c r="M7">
-        <v>1.030787179746128</v>
+        <v>1.045006138426275</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.994847270487875</v>
+        <v>1.026651138580372</v>
       </c>
       <c r="D8">
-        <v>1.015722249337544</v>
+        <v>1.034176728455598</v>
       </c>
       <c r="E8">
-        <v>1.001866276303836</v>
+        <v>1.026837443372791</v>
       </c>
       <c r="F8">
-        <v>1.015697724286922</v>
+        <v>1.041338097704045</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041044380676539</v>
+        <v>1.031017244102342</v>
       </c>
       <c r="J8">
-        <v>1.016606005690125</v>
+        <v>1.031693543971737</v>
       </c>
       <c r="K8">
-        <v>1.026693382317178</v>
+        <v>1.03691335075156</v>
       </c>
       <c r="L8">
-        <v>1.013021026898129</v>
+        <v>1.029594812809339</v>
       </c>
       <c r="M8">
-        <v>1.026669176726211</v>
+        <v>1.044054781396931</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9841271001331986</v>
+        <v>1.02444028580838</v>
       </c>
       <c r="D9">
-        <v>1.007921747764472</v>
+        <v>1.032517611180028</v>
       </c>
       <c r="E9">
-        <v>0.9933640880690837</v>
+        <v>1.024961718060623</v>
       </c>
       <c r="F9">
-        <v>1.006090313386321</v>
+        <v>1.039227398532732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038798342541081</v>
+        <v>1.030705201477232</v>
       </c>
       <c r="J9">
-        <v>1.01025309736967</v>
+        <v>1.03031293423995</v>
       </c>
       <c r="K9">
-        <v>1.020887594435561</v>
+        <v>1.035691590962966</v>
       </c>
       <c r="L9">
-        <v>1.006565753714736</v>
+        <v>1.028160729648755</v>
       </c>
       <c r="M9">
-        <v>1.019085346313138</v>
+        <v>1.042379483940625</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766343103045195</v>
+        <v>1.022969271401685</v>
       </c>
       <c r="D10">
-        <v>1.002488693626621</v>
+        <v>1.031413023755124</v>
       </c>
       <c r="E10">
-        <v>0.9874602422951277</v>
+        <v>1.023715714828008</v>
       </c>
       <c r="F10">
-        <v>0.9994087561464038</v>
+        <v>1.037824351427937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037174981890823</v>
+        <v>1.030490594060963</v>
       </c>
       <c r="J10">
-        <v>1.005806656080876</v>
+        <v>1.029392362998891</v>
       </c>
       <c r="K10">
-        <v>1.016813158856744</v>
+        <v>1.034875091508913</v>
       </c>
       <c r="L10">
-        <v>1.002059658128933</v>
+        <v>1.027205785615195</v>
       </c>
       <c r="M10">
-        <v>1.013788693895439</v>
+        <v>1.041263444447965</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9732994938378704</v>
+        <v>1.022333002344295</v>
       </c>
       <c r="D11">
-        <v>1.000076156296972</v>
+        <v>1.030935096906643</v>
       </c>
       <c r="E11">
-        <v>0.9848426108474007</v>
+        <v>1.023177261423274</v>
       </c>
       <c r="F11">
-        <v>0.9964438085049375</v>
+        <v>1.037217803750861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036440454794059</v>
+        <v>1.030396113085392</v>
       </c>
       <c r="J11">
-        <v>1.003826832927646</v>
+        <v>1.028993718768648</v>
       </c>
       <c r="K11">
-        <v>1.014996636564652</v>
+        <v>1.034521079020396</v>
       </c>
       <c r="L11">
-        <v>1.000056148401553</v>
+        <v>1.026792561138262</v>
       </c>
       <c r="M11">
-        <v>1.011433102450287</v>
+        <v>1.040780398568353</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.972046452032701</v>
+        <v>1.022096768213192</v>
       </c>
       <c r="D12">
-        <v>0.999170583262085</v>
+        <v>1.0307576301433</v>
       </c>
       <c r="E12">
-        <v>0.9838606226223832</v>
+        <v>1.022977418603912</v>
       </c>
       <c r="F12">
-        <v>0.9953311460938566</v>
+        <v>1.036992653754951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036162713802639</v>
+        <v>1.030360785616719</v>
       </c>
       <c r="J12">
-        <v>1.003082850710506</v>
+        <v>1.028845640889971</v>
       </c>
       <c r="K12">
-        <v>1.014313690857408</v>
+        <v>1.034389514542341</v>
       </c>
       <c r="L12">
-        <v>0.9993037002570668</v>
+        <v>1.026639113164868</v>
       </c>
       <c r="M12">
-        <v>1.010548343962762</v>
+        <v>1.040601006099229</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9723158956154353</v>
+        <v>1.022147436492011</v>
       </c>
       <c r="D13">
-        <v>0.9993652666774133</v>
+        <v>1.030795694784428</v>
       </c>
       <c r="E13">
-        <v>0.9840717087577959</v>
+        <v>1.023020278180429</v>
       </c>
       <c r="F13">
-        <v>0.9955703389732511</v>
+        <v>1.037040942435956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036222514788417</v>
+        <v>1.03036837401521</v>
       </c>
       <c r="J13">
-        <v>1.003242832791646</v>
+        <v>1.028877404247788</v>
       </c>
       <c r="K13">
-        <v>1.014460562463761</v>
+        <v>1.034417738651237</v>
       </c>
       <c r="L13">
-        <v>0.9994654830960041</v>
+        <v>1.026672026358896</v>
       </c>
       <c r="M13">
-        <v>1.010738578202341</v>
+        <v>1.040639484912228</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9731962141924132</v>
+        <v>1.022313473019908</v>
       </c>
       <c r="D14">
-        <v>1.000001496735041</v>
+        <v>1.030920426286735</v>
       </c>
       <c r="E14">
-        <v>0.9847616398474588</v>
+        <v>1.023160739025567</v>
       </c>
       <c r="F14">
-        <v>0.9963520703847494</v>
+        <v>1.037199189737808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036417597642775</v>
+        <v>1.030393197656459</v>
       </c>
       <c r="J14">
-        <v>1.003765512734048</v>
+        <v>1.028981478674111</v>
       </c>
       <c r="K14">
-        <v>1.014940353653776</v>
+        <v>1.034510205250393</v>
       </c>
       <c r="L14">
-        <v>0.9999941215701876</v>
+        <v>1.026779876218173</v>
       </c>
       <c r="M14">
-        <v>1.011360170433748</v>
+        <v>1.040765569265248</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9737366832906835</v>
+        <v>1.02241578748183</v>
       </c>
       <c r="D15">
-        <v>1.000392233411771</v>
+        <v>1.03099728501819</v>
       </c>
       <c r="E15">
-        <v>0.9851854309870798</v>
+        <v>1.023247303194682</v>
       </c>
       <c r="F15">
-        <v>0.9968321995982227</v>
+        <v>1.037296710886119</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036537139795495</v>
+        <v>1.030408461458444</v>
       </c>
       <c r="J15">
-        <v>1.004086402651683</v>
+        <v>1.029045601906752</v>
       </c>
       <c r="K15">
-        <v>1.015234870082571</v>
+        <v>1.034567167931664</v>
       </c>
       <c r="L15">
-        <v>1.000318727092675</v>
+        <v>1.026846331672059</v>
       </c>
       <c r="M15">
-        <v>1.011741842899045</v>
+        <v>1.040843258310764</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9768536628119528</v>
+        <v>1.023011513093559</v>
       </c>
       <c r="D16">
-        <v>1.002647505264533</v>
+        <v>1.031444750037035</v>
       </c>
       <c r="E16">
-        <v>0.9876326352378995</v>
+        <v>1.023751472955808</v>
       </c>
       <c r="F16">
-        <v>0.9996039701946128</v>
+        <v>1.037864626790365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037223051057039</v>
+        <v>1.030496831744453</v>
       </c>
       <c r="J16">
-        <v>1.005936868790625</v>
+        <v>1.029418819136944</v>
       </c>
       <c r="K16">
-        <v>1.016932584429526</v>
+        <v>1.034898576490777</v>
       </c>
       <c r="L16">
-        <v>1.002191488861158</v>
+        <v>1.027233215794957</v>
       </c>
       <c r="M16">
-        <v>1.013943679982646</v>
+        <v>1.041295507070553</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9787841401299464</v>
+        <v>1.023385381352319</v>
       </c>
       <c r="D17">
-        <v>1.004045817572849</v>
+        <v>1.031725532240765</v>
       </c>
       <c r="E17">
-        <v>0.9891509772480406</v>
+        <v>1.024068013886138</v>
       </c>
       <c r="F17">
-        <v>1.001323022422463</v>
+        <v>1.038221129082795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037644736850093</v>
+        <v>1.030551848264283</v>
       </c>
       <c r="J17">
-        <v>1.007082754783362</v>
+        <v>1.029652920879071</v>
       </c>
       <c r="K17">
-        <v>1.017983278882979</v>
+        <v>1.035106337156902</v>
       </c>
       <c r="L17">
-        <v>1.003351941256849</v>
+        <v>1.027475971700072</v>
       </c>
       <c r="M17">
-        <v>1.015307893961646</v>
+        <v>1.041579246953994</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9799014878975101</v>
+        <v>1.023603518887261</v>
       </c>
       <c r="D18">
-        <v>1.004855672367722</v>
+        <v>1.031889343043635</v>
       </c>
       <c r="E18">
-        <v>0.9900307272816463</v>
+        <v>1.024252750410497</v>
       </c>
       <c r="F18">
-        <v>1.002318829831062</v>
+        <v>1.038429165392148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037887661148076</v>
+        <v>1.03058378844283</v>
       </c>
       <c r="J18">
-        <v>1.00774590226022</v>
+        <v>1.029789465427152</v>
       </c>
       <c r="K18">
-        <v>1.018591113673917</v>
+        <v>1.035227475710364</v>
       </c>
       <c r="L18">
-        <v>1.004023791209746</v>
+        <v>1.02761759334359</v>
       </c>
       <c r="M18">
-        <v>1.016097656936201</v>
+        <v>1.041744767476727</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9802810268335614</v>
+        <v>1.023677909403234</v>
       </c>
       <c r="D19">
-        <v>1.00513084821128</v>
+        <v>1.031945204236763</v>
       </c>
       <c r="E19">
-        <v>0.9903297173164671</v>
+        <v>1.024315758314633</v>
       </c>
       <c r="F19">
-        <v>1.002657222829163</v>
+        <v>1.038500116391747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037969981377235</v>
+        <v>1.030594653755203</v>
       </c>
       <c r="J19">
-        <v>1.007971143346999</v>
+        <v>1.029836023044832</v>
       </c>
       <c r="K19">
-        <v>1.018797529005166</v>
+        <v>1.03526877320774</v>
       </c>
       <c r="L19">
-        <v>1.004252034286781</v>
+        <v>1.027665887081755</v>
       </c>
       <c r="M19">
-        <v>1.016365948151795</v>
+        <v>1.041801209026575</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9785779199929945</v>
+        <v>1.023345261941102</v>
       </c>
       <c r="D20">
-        <v>1.003896390446038</v>
+        <v>1.031695403306565</v>
       </c>
       <c r="E20">
-        <v>0.9889886844111243</v>
+        <v>1.024034041318989</v>
       </c>
       <c r="F20">
-        <v>1.001139300661726</v>
+        <v>1.038182869970185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037599809281024</v>
+        <v>1.030545961026537</v>
       </c>
       <c r="J20">
-        <v>1.006960355681936</v>
+        <v>1.02962780428483</v>
       </c>
       <c r="K20">
-        <v>1.017871070795371</v>
+        <v>1.035084051022423</v>
       </c>
       <c r="L20">
-        <v>1.003227957925644</v>
+        <v>1.027449923568113</v>
       </c>
       <c r="M20">
-        <v>1.015162146380221</v>
+        <v>1.041548802287706</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9729373846293068</v>
+        <v>1.022264576508262</v>
       </c>
       <c r="D21">
-        <v>0.9998144073369932</v>
+        <v>1.030883694395593</v>
       </c>
       <c r="E21">
-        <v>0.9845587436992386</v>
+        <v>1.02311937230395</v>
       </c>
       <c r="F21">
-        <v>0.9961221879634559</v>
+        <v>1.037152585731975</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036360287320735</v>
+        <v>1.030385894141299</v>
       </c>
       <c r="J21">
-        <v>1.003611836948495</v>
+        <v>1.028950831442865</v>
       </c>
       <c r="K21">
-        <v>1.014799296681716</v>
+        <v>1.03448297802342</v>
       </c>
       <c r="L21">
-        <v>0.9998386818852001</v>
+        <v>1.02674811595503</v>
       </c>
       <c r="M21">
-        <v>1.011177400998909</v>
+        <v>1.040728439664847</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9693075574059781</v>
+        <v>1.021585711882599</v>
       </c>
       <c r="D22">
-        <v>0.997192994530364</v>
+        <v>1.030373668667638</v>
       </c>
       <c r="E22">
-        <v>0.9817171753809534</v>
+        <v>1.022545225884821</v>
       </c>
       <c r="F22">
-        <v>0.9929017624785433</v>
+        <v>1.036505666866172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035552486488544</v>
+        <v>1.030283905772786</v>
       </c>
       <c r="J22">
-        <v>1.001456584839233</v>
+        <v>1.028525171040694</v>
       </c>
       <c r="K22">
-        <v>1.012820264596866</v>
+        <v>1.034104663907472</v>
       </c>
       <c r="L22">
-        <v>0.9976597325102976</v>
+        <v>1.026307105147277</v>
       </c>
       <c r="M22">
-        <v>1.008615160633705</v>
+        <v>1.040212832490367</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9712399716243809</v>
+        <v>1.021945533204537</v>
       </c>
       <c r="D23">
-        <v>0.9985880131118664</v>
+        <v>1.030644011395868</v>
       </c>
       <c r="E23">
-        <v>0.9832290503897577</v>
+        <v>1.022849501991879</v>
       </c>
       <c r="F23">
-        <v>0.9946154219358356</v>
+        <v>1.036848528635186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035983470404763</v>
+        <v>1.030338099332293</v>
       </c>
       <c r="J23">
-        <v>1.002603996732114</v>
+        <v>1.028750823313415</v>
       </c>
       <c r="K23">
-        <v>1.013874032333347</v>
+        <v>1.0343052525292</v>
       </c>
       <c r="L23">
-        <v>0.9988195203164888</v>
+        <v>1.026540869892108</v>
       </c>
       <c r="M23">
-        <v>1.009979004038594</v>
+        <v>1.040486147434354</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9786711287242397</v>
+        <v>1.023363389970664</v>
       </c>
       <c r="D24">
-        <v>1.003963927892394</v>
+        <v>1.031709017166144</v>
       </c>
       <c r="E24">
-        <v>0.9890620356732268</v>
+        <v>1.024049391739925</v>
       </c>
       <c r="F24">
-        <v>1.001222337858381</v>
+        <v>1.038200157324313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037620119492134</v>
+        <v>1.030548621679468</v>
       </c>
       <c r="J24">
-        <v>1.007015678695541</v>
+        <v>1.029639153402105</v>
       </c>
       <c r="K24">
-        <v>1.017921788280026</v>
+        <v>1.035094121305599</v>
       </c>
       <c r="L24">
-        <v>1.003283996148261</v>
+        <v>1.027461693516766</v>
       </c>
       <c r="M24">
-        <v>1.015228021823694</v>
+        <v>1.041562558860712</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9869568626863509</v>
+        <v>1.025011339488398</v>
       </c>
       <c r="D25">
-        <v>1.009977857063313</v>
+        <v>1.032946276347522</v>
       </c>
       <c r="E25">
-        <v>0.9956019612205085</v>
+        <v>1.025445854320966</v>
       </c>
       <c r="F25">
-        <v>1.008620846668069</v>
+        <v>1.039772351116416</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039400660884047</v>
+        <v>1.030787033984336</v>
       </c>
       <c r="J25">
-        <v>1.011931297128487</v>
+        <v>1.030669888353762</v>
       </c>
       <c r="K25">
-        <v>1.022423229393361</v>
+        <v>1.036007801163983</v>
       </c>
       <c r="L25">
-        <v>1.008268936912412</v>
+        <v>1.028531283282607</v>
       </c>
       <c r="M25">
-        <v>1.021086793069226</v>
+        <v>1.042812448537926</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026327809050455</v>
+        <v>0.9933185500315576</v>
       </c>
       <c r="D2">
-        <v>1.033934170463273</v>
+        <v>1.014608082785909</v>
       </c>
       <c r="E2">
-        <v>1.026562891491226</v>
+        <v>1.000649767249437</v>
       </c>
       <c r="F2">
-        <v>1.041029263270843</v>
+        <v>1.014324213285785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030972423753723</v>
+        <v>1.040730325321009</v>
       </c>
       <c r="J2">
-        <v>1.031491865453045</v>
+        <v>1.015700955316581</v>
       </c>
       <c r="K2">
-        <v>1.036735092774435</v>
+        <v>1.025867587123763</v>
       </c>
       <c r="L2">
-        <v>1.02938517384718</v>
+        <v>1.012100057198462</v>
       </c>
       <c r="M2">
-        <v>1.043809936069994</v>
+        <v>1.025587531871989</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027284868655318</v>
+        <v>0.9978058593112605</v>
       </c>
       <c r="D3">
-        <v>1.034652058386466</v>
+        <v>1.017880097440372</v>
       </c>
       <c r="E3">
-        <v>1.027375804996841</v>
+        <v>1.004224574086679</v>
       </c>
       <c r="F3">
-        <v>1.041943570300468</v>
+        <v>1.01835924305234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031104258443841</v>
+        <v>1.041645652255655</v>
       </c>
       <c r="J3">
-        <v>1.032088599008431</v>
+        <v>1.018356518057173</v>
       </c>
       <c r="K3">
-        <v>1.037262307209987</v>
+        <v>1.028289198556893</v>
       </c>
       <c r="L3">
-        <v>1.030005613419861</v>
+        <v>1.014803684575204</v>
       </c>
       <c r="M3">
-        <v>1.044534514629731</v>
+        <v>1.028762481836191</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027904694304471</v>
+        <v>1.000651908641663</v>
       </c>
       <c r="D4">
-        <v>1.035116844112886</v>
+        <v>1.019957708534688</v>
       </c>
       <c r="E4">
-        <v>1.027902660592929</v>
+        <v>1.006498144478465</v>
       </c>
       <c r="F4">
-        <v>1.042535956090852</v>
+        <v>1.020923672418743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031188277057087</v>
+        <v>1.042215449173462</v>
       </c>
       <c r="J4">
-        <v>1.032474676121379</v>
+        <v>1.020038953217503</v>
       </c>
       <c r="K4">
-        <v>1.037603044275085</v>
+        <v>1.029821084011674</v>
       </c>
       <c r="L4">
-        <v>1.030407276591723</v>
+        <v>1.016518770211743</v>
       </c>
       <c r="M4">
-        <v>1.045003503623353</v>
+        <v>1.030775959258984</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028165398288454</v>
+        <v>1.001835096979143</v>
       </c>
       <c r="D5">
-        <v>1.035312301825979</v>
+        <v>1.020821937925186</v>
       </c>
       <c r="E5">
-        <v>1.028124351883175</v>
+        <v>1.007444794086867</v>
       </c>
       <c r="F5">
-        <v>1.042785177462964</v>
+        <v>1.021990989345906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031223289755672</v>
+        <v>1.042449709340826</v>
       </c>
       <c r="J5">
-        <v>1.032636970101201</v>
+        <v>1.02073791381736</v>
       </c>
       <c r="K5">
-        <v>1.037746191859673</v>
+        <v>1.030456923862883</v>
       </c>
       <c r="L5">
-        <v>1.030576181941058</v>
+        <v>1.017231822390594</v>
       </c>
       <c r="M5">
-        <v>1.045200698402347</v>
+        <v>1.031612920806986</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028209179187396</v>
+        <v>1.002032993772526</v>
       </c>
       <c r="D6">
-        <v>1.035345123617063</v>
+        <v>1.02096651441447</v>
       </c>
       <c r="E6">
-        <v>1.028161586584383</v>
+        <v>1.007603212456427</v>
       </c>
       <c r="F6">
-        <v>1.04282703348028</v>
+        <v>1.022169575320224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031229150421788</v>
+        <v>1.042488735687496</v>
       </c>
       <c r="J6">
-        <v>1.032664219192287</v>
+        <v>1.020854790855227</v>
       </c>
       <c r="K6">
-        <v>1.03777022117406</v>
+        <v>1.030563211823259</v>
       </c>
       <c r="L6">
-        <v>1.030604544567486</v>
+        <v>1.017351086733474</v>
       </c>
       <c r="M6">
-        <v>1.045233810101291</v>
+        <v>1.031752901279062</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027908177337089</v>
+        <v>1.000667770061354</v>
       </c>
       <c r="D7">
-        <v>1.035119455587451</v>
+        <v>1.019969292188119</v>
       </c>
       <c r="E7">
-        <v>1.027905622053969</v>
+        <v>1.00651082924182</v>
       </c>
       <c r="F7">
-        <v>1.042539285484224</v>
+        <v>1.020937975804621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031188746112258</v>
+        <v>1.04221859999705</v>
       </c>
       <c r="J7">
-        <v>1.032476844753196</v>
+        <v>1.020048325182267</v>
       </c>
       <c r="K7">
-        <v>1.037604957407659</v>
+        <v>1.029829611921737</v>
       </c>
       <c r="L7">
-        <v>1.030409533333274</v>
+        <v>1.016528329040565</v>
       </c>
       <c r="M7">
-        <v>1.045006138426275</v>
+        <v>1.030787179746129</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026651138580372</v>
+        <v>0.9948472704878762</v>
       </c>
       <c r="D8">
-        <v>1.034176728455598</v>
+        <v>1.015722249337545</v>
       </c>
       <c r="E8">
-        <v>1.026837443372791</v>
+        <v>1.001866276303837</v>
       </c>
       <c r="F8">
-        <v>1.041338097704045</v>
+        <v>1.015697724286923</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031017244102342</v>
+        <v>1.04104438067654</v>
       </c>
       <c r="J8">
-        <v>1.031693543971737</v>
+        <v>1.016606005690126</v>
       </c>
       <c r="K8">
-        <v>1.03691335075156</v>
+        <v>1.02669338231718</v>
       </c>
       <c r="L8">
-        <v>1.029594812809339</v>
+        <v>1.01302102689813</v>
       </c>
       <c r="M8">
-        <v>1.044054781396931</v>
+        <v>1.026669176726212</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02444028580838</v>
+        <v>0.9841271001331978</v>
       </c>
       <c r="D9">
-        <v>1.032517611180028</v>
+        <v>1.007921747764471</v>
       </c>
       <c r="E9">
-        <v>1.024961718060623</v>
+        <v>0.9933640880690832</v>
       </c>
       <c r="F9">
-        <v>1.039227398532732</v>
+        <v>1.006090313386321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030705201477232</v>
+        <v>1.038798342541081</v>
       </c>
       <c r="J9">
-        <v>1.03031293423995</v>
+        <v>1.010253097369669</v>
       </c>
       <c r="K9">
-        <v>1.035691590962966</v>
+        <v>1.02088759443556</v>
       </c>
       <c r="L9">
-        <v>1.028160729648755</v>
+        <v>1.006565753714735</v>
       </c>
       <c r="M9">
-        <v>1.042379483940625</v>
+        <v>1.019085346313137</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022969271401685</v>
+        <v>0.9766343103045195</v>
       </c>
       <c r="D10">
-        <v>1.031413023755124</v>
+        <v>1.002488693626621</v>
       </c>
       <c r="E10">
-        <v>1.023715714828008</v>
+        <v>0.9874602422951276</v>
       </c>
       <c r="F10">
-        <v>1.037824351427937</v>
+        <v>0.9994087561464035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030490594060963</v>
+        <v>1.037174981890823</v>
       </c>
       <c r="J10">
-        <v>1.029392362998891</v>
+        <v>1.005806656080876</v>
       </c>
       <c r="K10">
-        <v>1.034875091508913</v>
+        <v>1.016813158856744</v>
       </c>
       <c r="L10">
-        <v>1.027205785615195</v>
+        <v>1.002059658128932</v>
       </c>
       <c r="M10">
-        <v>1.041263444447965</v>
+        <v>1.013788693895439</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022333002344295</v>
+        <v>0.97329949383787</v>
       </c>
       <c r="D11">
-        <v>1.030935096906643</v>
+        <v>1.000076156296972</v>
       </c>
       <c r="E11">
-        <v>1.023177261423274</v>
+        <v>0.9848426108474001</v>
       </c>
       <c r="F11">
-        <v>1.037217803750861</v>
+        <v>0.9964438085049373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030396113085392</v>
+        <v>1.036440454794059</v>
       </c>
       <c r="J11">
-        <v>1.028993718768648</v>
+        <v>1.003826832927646</v>
       </c>
       <c r="K11">
-        <v>1.034521079020396</v>
+        <v>1.014996636564652</v>
       </c>
       <c r="L11">
-        <v>1.026792561138262</v>
+        <v>1.000056148401553</v>
       </c>
       <c r="M11">
-        <v>1.040780398568353</v>
+        <v>1.011433102450287</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022096768213192</v>
+        <v>0.9720464520327012</v>
       </c>
       <c r="D12">
-        <v>1.0307576301433</v>
+        <v>0.999170583262085</v>
       </c>
       <c r="E12">
-        <v>1.022977418603912</v>
+        <v>0.9838606226223833</v>
       </c>
       <c r="F12">
-        <v>1.036992653754951</v>
+        <v>0.9953311460938568</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030360785616719</v>
+        <v>1.036162713802639</v>
       </c>
       <c r="J12">
-        <v>1.028845640889971</v>
+        <v>1.003082850710506</v>
       </c>
       <c r="K12">
-        <v>1.034389514542341</v>
+        <v>1.014313690857408</v>
       </c>
       <c r="L12">
-        <v>1.026639113164868</v>
+        <v>0.9993037002570668</v>
       </c>
       <c r="M12">
-        <v>1.040601006099229</v>
+        <v>1.010548343962762</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022147436492011</v>
+        <v>0.9723158956154355</v>
       </c>
       <c r="D13">
-        <v>1.030795694784428</v>
+        <v>0.9993652666774135</v>
       </c>
       <c r="E13">
-        <v>1.023020278180429</v>
+        <v>0.984071708757796</v>
       </c>
       <c r="F13">
-        <v>1.037040942435956</v>
+        <v>0.9955703389732512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03036837401521</v>
+        <v>1.036222514788417</v>
       </c>
       <c r="J13">
-        <v>1.028877404247788</v>
+        <v>1.003242832791646</v>
       </c>
       <c r="K13">
-        <v>1.034417738651237</v>
+        <v>1.014460562463761</v>
       </c>
       <c r="L13">
-        <v>1.026672026358896</v>
+        <v>0.9994654830960041</v>
       </c>
       <c r="M13">
-        <v>1.040639484912228</v>
+        <v>1.010738578202341</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022313473019908</v>
+        <v>0.973196214192413</v>
       </c>
       <c r="D14">
-        <v>1.030920426286735</v>
+        <v>1.000001496735041</v>
       </c>
       <c r="E14">
-        <v>1.023160739025567</v>
+        <v>0.9847616398474586</v>
       </c>
       <c r="F14">
-        <v>1.037199189737808</v>
+        <v>0.9963520703847488</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030393197656459</v>
+        <v>1.036417597642775</v>
       </c>
       <c r="J14">
-        <v>1.028981478674111</v>
+        <v>1.003765512734048</v>
       </c>
       <c r="K14">
-        <v>1.034510205250393</v>
+        <v>1.014940353653776</v>
       </c>
       <c r="L14">
-        <v>1.026779876218173</v>
+        <v>0.9999941215701874</v>
       </c>
       <c r="M14">
-        <v>1.040765569265248</v>
+        <v>1.011360170433748</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02241578748183</v>
+        <v>0.9737366832906831</v>
       </c>
       <c r="D15">
-        <v>1.03099728501819</v>
+        <v>1.000392233411771</v>
       </c>
       <c r="E15">
-        <v>1.023247303194682</v>
+        <v>0.9851854309870794</v>
       </c>
       <c r="F15">
-        <v>1.037296710886119</v>
+        <v>0.9968321995982223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030408461458444</v>
+        <v>1.036537139795495</v>
       </c>
       <c r="J15">
-        <v>1.029045601906752</v>
+        <v>1.004086402651682</v>
       </c>
       <c r="K15">
-        <v>1.034567167931664</v>
+        <v>1.015234870082571</v>
       </c>
       <c r="L15">
-        <v>1.026846331672059</v>
+        <v>1.000318727092674</v>
       </c>
       <c r="M15">
-        <v>1.040843258310764</v>
+        <v>1.011741842899044</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023011513093559</v>
+        <v>0.976853662811953</v>
       </c>
       <c r="D16">
-        <v>1.031444750037035</v>
+        <v>1.002647505264533</v>
       </c>
       <c r="E16">
-        <v>1.023751472955808</v>
+        <v>0.9876326352378993</v>
       </c>
       <c r="F16">
-        <v>1.037864626790365</v>
+        <v>0.9996039701946124</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030496831744453</v>
+        <v>1.037223051057039</v>
       </c>
       <c r="J16">
-        <v>1.029418819136944</v>
+        <v>1.005936868790625</v>
       </c>
       <c r="K16">
-        <v>1.034898576490777</v>
+        <v>1.016932584429526</v>
       </c>
       <c r="L16">
-        <v>1.027233215794957</v>
+        <v>1.002191488861158</v>
       </c>
       <c r="M16">
-        <v>1.041295507070553</v>
+        <v>1.013943679982646</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023385381352319</v>
+        <v>0.9787841401299463</v>
       </c>
       <c r="D17">
-        <v>1.031725532240765</v>
+        <v>1.004045817572849</v>
       </c>
       <c r="E17">
-        <v>1.024068013886138</v>
+        <v>0.9891509772480404</v>
       </c>
       <c r="F17">
-        <v>1.038221129082795</v>
+        <v>1.001323022422464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030551848264283</v>
+        <v>1.037644736850093</v>
       </c>
       <c r="J17">
-        <v>1.029652920879071</v>
+        <v>1.007082754783362</v>
       </c>
       <c r="K17">
-        <v>1.035106337156902</v>
+        <v>1.017983278882979</v>
       </c>
       <c r="L17">
-        <v>1.027475971700072</v>
+        <v>1.003351941256849</v>
       </c>
       <c r="M17">
-        <v>1.041579246953994</v>
+        <v>1.015307893961647</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023603518887261</v>
+        <v>0.9799014878975099</v>
       </c>
       <c r="D18">
-        <v>1.031889343043635</v>
+        <v>1.004855672367722</v>
       </c>
       <c r="E18">
-        <v>1.024252750410497</v>
+        <v>0.990030727281646</v>
       </c>
       <c r="F18">
-        <v>1.038429165392148</v>
+        <v>1.002318829831062</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03058378844283</v>
+        <v>1.037887661148076</v>
       </c>
       <c r="J18">
-        <v>1.029789465427152</v>
+        <v>1.00774590226022</v>
       </c>
       <c r="K18">
-        <v>1.035227475710364</v>
+        <v>1.018591113673917</v>
       </c>
       <c r="L18">
-        <v>1.02761759334359</v>
+        <v>1.004023791209746</v>
       </c>
       <c r="M18">
-        <v>1.041744767476727</v>
+        <v>1.016097656936201</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023677909403234</v>
+        <v>0.9802810268335616</v>
       </c>
       <c r="D19">
-        <v>1.031945204236763</v>
+        <v>1.00513084821128</v>
       </c>
       <c r="E19">
-        <v>1.024315758314633</v>
+        <v>0.9903297173164671</v>
       </c>
       <c r="F19">
-        <v>1.038500116391747</v>
+        <v>1.002657222829163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030594653755203</v>
+        <v>1.037969981377235</v>
       </c>
       <c r="J19">
-        <v>1.029836023044832</v>
+        <v>1.007971143346999</v>
       </c>
       <c r="K19">
-        <v>1.03526877320774</v>
+        <v>1.018797529005166</v>
       </c>
       <c r="L19">
-        <v>1.027665887081755</v>
+        <v>1.004252034286781</v>
       </c>
       <c r="M19">
-        <v>1.041801209026575</v>
+        <v>1.016365948151795</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023345261941102</v>
+        <v>0.9785779199929951</v>
       </c>
       <c r="D20">
-        <v>1.031695403306565</v>
+        <v>1.003896390446039</v>
       </c>
       <c r="E20">
-        <v>1.024034041318989</v>
+        <v>0.9889886844111248</v>
       </c>
       <c r="F20">
-        <v>1.038182869970185</v>
+        <v>1.001139300661726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030545961026537</v>
+        <v>1.037599809281025</v>
       </c>
       <c r="J20">
-        <v>1.02962780428483</v>
+        <v>1.006960355681936</v>
       </c>
       <c r="K20">
-        <v>1.035084051022423</v>
+        <v>1.017871070795372</v>
       </c>
       <c r="L20">
-        <v>1.027449923568113</v>
+        <v>1.003227957925644</v>
       </c>
       <c r="M20">
-        <v>1.041548802287706</v>
+        <v>1.015162146380222</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022264576508262</v>
+        <v>0.972937384629307</v>
       </c>
       <c r="D21">
-        <v>1.030883694395593</v>
+        <v>0.9998144073369933</v>
       </c>
       <c r="E21">
-        <v>1.02311937230395</v>
+        <v>0.9845587436992382</v>
       </c>
       <c r="F21">
-        <v>1.037152585731975</v>
+        <v>0.9961221879634562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030385894141299</v>
+        <v>1.036360287320735</v>
       </c>
       <c r="J21">
-        <v>1.028950831442865</v>
+        <v>1.003611836948495</v>
       </c>
       <c r="K21">
-        <v>1.03448297802342</v>
+        <v>1.014799296681716</v>
       </c>
       <c r="L21">
-        <v>1.02674811595503</v>
+        <v>0.9998386818851996</v>
       </c>
       <c r="M21">
-        <v>1.040728439664847</v>
+        <v>1.011177400998909</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021585711882599</v>
+        <v>0.9693075574059781</v>
       </c>
       <c r="D22">
-        <v>1.030373668667638</v>
+        <v>0.9971929945303644</v>
       </c>
       <c r="E22">
-        <v>1.022545225884821</v>
+        <v>0.9817171753809534</v>
       </c>
       <c r="F22">
-        <v>1.036505666866172</v>
+        <v>0.9929017624785439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030283905772786</v>
+        <v>1.035552486488544</v>
       </c>
       <c r="J22">
-        <v>1.028525171040694</v>
+        <v>1.001456584839233</v>
       </c>
       <c r="K22">
-        <v>1.034104663907472</v>
+        <v>1.012820264596866</v>
       </c>
       <c r="L22">
-        <v>1.026307105147277</v>
+        <v>0.9976597325102977</v>
       </c>
       <c r="M22">
-        <v>1.040212832490367</v>
+        <v>1.008615160633705</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021945533204537</v>
+        <v>0.9712399716243812</v>
       </c>
       <c r="D23">
-        <v>1.030644011395868</v>
+        <v>0.998588013111867</v>
       </c>
       <c r="E23">
-        <v>1.022849501991879</v>
+        <v>0.9832290503897581</v>
       </c>
       <c r="F23">
-        <v>1.036848528635186</v>
+        <v>0.9946154219358362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030338099332293</v>
+        <v>1.035983470404763</v>
       </c>
       <c r="J23">
-        <v>1.028750823313415</v>
+        <v>1.002603996732114</v>
       </c>
       <c r="K23">
-        <v>1.0343052525292</v>
+        <v>1.013874032333347</v>
       </c>
       <c r="L23">
-        <v>1.026540869892108</v>
+        <v>0.9988195203164891</v>
       </c>
       <c r="M23">
-        <v>1.040486147434354</v>
+        <v>1.009979004038595</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023363389970664</v>
+        <v>0.9786711287242402</v>
       </c>
       <c r="D24">
-        <v>1.031709017166144</v>
+        <v>1.003963927892394</v>
       </c>
       <c r="E24">
-        <v>1.024049391739925</v>
+        <v>0.9890620356732269</v>
       </c>
       <c r="F24">
-        <v>1.038200157324313</v>
+        <v>1.001222337858382</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030548621679468</v>
+        <v>1.037620119492134</v>
       </c>
       <c r="J24">
-        <v>1.029639153402105</v>
+        <v>1.007015678695541</v>
       </c>
       <c r="K24">
-        <v>1.035094121305599</v>
+        <v>1.017921788280026</v>
       </c>
       <c r="L24">
-        <v>1.027461693516766</v>
+        <v>1.003283996148261</v>
       </c>
       <c r="M24">
-        <v>1.041562558860712</v>
+        <v>1.015228021823694</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025011339488398</v>
+        <v>0.986956862686351</v>
       </c>
       <c r="D25">
-        <v>1.032946276347522</v>
+        <v>1.009977857063313</v>
       </c>
       <c r="E25">
-        <v>1.025445854320966</v>
+        <v>0.9956019612205084</v>
       </c>
       <c r="F25">
-        <v>1.039772351116416</v>
+        <v>1.00862084666807</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030787033984336</v>
+        <v>1.039400660884047</v>
       </c>
       <c r="J25">
-        <v>1.030669888353762</v>
+        <v>1.011931297128487</v>
       </c>
       <c r="K25">
-        <v>1.036007801163983</v>
+        <v>1.022423229393361</v>
       </c>
       <c r="L25">
-        <v>1.028531283282607</v>
+        <v>1.008268936912412</v>
       </c>
       <c r="M25">
-        <v>1.042812448537926</v>
+        <v>1.021086793069226</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9933185500315576</v>
+        <v>1.027495726672369</v>
       </c>
       <c r="D2">
-        <v>1.014608082785909</v>
+        <v>1.042940808365237</v>
       </c>
       <c r="E2">
-        <v>1.000649767249437</v>
+        <v>1.029901158471584</v>
       </c>
       <c r="F2">
-        <v>1.014324213285785</v>
+        <v>1.047028705129994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040730325321009</v>
+        <v>1.055526165744575</v>
       </c>
       <c r="J2">
-        <v>1.015700955316581</v>
+        <v>1.048884033904958</v>
       </c>
       <c r="K2">
-        <v>1.025867587123763</v>
+        <v>1.05383264890277</v>
       </c>
       <c r="L2">
-        <v>1.012100057198462</v>
+        <v>1.040959065763819</v>
       </c>
       <c r="M2">
-        <v>1.025587531871989</v>
+        <v>1.057869545123389</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054372122970991</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.049134542035945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9978058593112605</v>
+        <v>1.031840640671496</v>
       </c>
       <c r="D3">
-        <v>1.017880097440372</v>
+        <v>1.045873444803815</v>
       </c>
       <c r="E3">
-        <v>1.004224574086679</v>
+        <v>1.033414228329043</v>
       </c>
       <c r="F3">
-        <v>1.01835924305234</v>
+        <v>1.04996135198644</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041645652255655</v>
+        <v>1.056761831861213</v>
       </c>
       <c r="J3">
-        <v>1.018356518057173</v>
+        <v>1.051499391162002</v>
       </c>
       <c r="K3">
-        <v>1.028289198556893</v>
+        <v>1.055951175918496</v>
       </c>
       <c r="L3">
-        <v>1.014803684575204</v>
+        <v>1.043636699611727</v>
       </c>
       <c r="M3">
-        <v>1.028762481836191</v>
+        <v>1.059992516312065</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.056052278930869</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050629857604836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000651908641663</v>
+        <v>1.034599923971387</v>
       </c>
       <c r="D4">
-        <v>1.019957708534688</v>
+        <v>1.047740212238051</v>
       </c>
       <c r="E4">
-        <v>1.006498144478465</v>
+        <v>1.035650422466725</v>
       </c>
       <c r="F4">
-        <v>1.020923672418743</v>
+        <v>1.051830679768765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042215449173462</v>
+        <v>1.057538982729909</v>
       </c>
       <c r="J4">
-        <v>1.020038953217503</v>
+        <v>1.053158141187332</v>
       </c>
       <c r="K4">
-        <v>1.029821084011674</v>
+        <v>1.057294674730862</v>
       </c>
       <c r="L4">
-        <v>1.016518770211743</v>
+        <v>1.045336806588033</v>
       </c>
       <c r="M4">
-        <v>1.030775959258984</v>
+        <v>1.061341348664193</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.057119766158625</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051580682050838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001835096979143</v>
+        <v>1.035753151804351</v>
       </c>
       <c r="D5">
-        <v>1.020821937925186</v>
+        <v>1.048523622140182</v>
       </c>
       <c r="E5">
-        <v>1.007444794086867</v>
+        <v>1.036587025923925</v>
       </c>
       <c r="F5">
-        <v>1.021990989345906</v>
+        <v>1.052614310908504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042449709340826</v>
+        <v>1.057864057930279</v>
       </c>
       <c r="J5">
-        <v>1.02073791381736</v>
+        <v>1.053852851380758</v>
       </c>
       <c r="K5">
-        <v>1.030456923862883</v>
+        <v>1.05785884361728</v>
       </c>
       <c r="L5">
-        <v>1.017231822390594</v>
+        <v>1.046049007220878</v>
       </c>
       <c r="M5">
-        <v>1.031612920806986</v>
+        <v>1.061906899232813</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.057567351367941</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051986642145068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002032993772526</v>
+        <v>1.035952545912845</v>
       </c>
       <c r="D6">
-        <v>1.02096651441447</v>
+        <v>1.048661799319527</v>
       </c>
       <c r="E6">
-        <v>1.007603212456427</v>
+        <v>1.036749994502447</v>
       </c>
       <c r="F6">
-        <v>1.022169575320224</v>
+        <v>1.052750790705953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042488735687496</v>
+        <v>1.057922737923792</v>
       </c>
       <c r="J6">
-        <v>1.020854790855227</v>
+        <v>1.053975358483731</v>
       </c>
       <c r="K6">
-        <v>1.030563211823259</v>
+        <v>1.057960181951001</v>
       </c>
       <c r="L6">
-        <v>1.017351086733474</v>
+        <v>1.046174289849769</v>
       </c>
       <c r="M6">
-        <v>1.031752901279062</v>
+        <v>1.062006752725473</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057646376893747</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052066899905488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000667770061354</v>
+        <v>1.034632841877918</v>
       </c>
       <c r="D7">
-        <v>1.019969292188119</v>
+        <v>1.047769733183555</v>
       </c>
       <c r="E7">
-        <v>1.00651082924182</v>
+        <v>1.035679763355768</v>
       </c>
       <c r="F7">
-        <v>1.020937975804621</v>
+        <v>1.051855443054627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04221859999705</v>
+        <v>1.057555251330897</v>
       </c>
       <c r="J7">
-        <v>1.020048325182267</v>
+        <v>1.053184508360545</v>
       </c>
       <c r="K7">
-        <v>1.029829611921737</v>
+        <v>1.057321058462139</v>
       </c>
       <c r="L7">
-        <v>1.016528329040565</v>
+        <v>1.045362959228851</v>
       </c>
       <c r="M7">
-        <v>1.030787179746129</v>
+        <v>1.061363042952078</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.057136935348529</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051619133457661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948472704878762</v>
+        <v>1.028997397726009</v>
       </c>
       <c r="D8">
-        <v>1.015722249337545</v>
+        <v>1.04396244656331</v>
       </c>
       <c r="E8">
-        <v>1.001866276303837</v>
+        <v>1.031117698772412</v>
       </c>
       <c r="F8">
-        <v>1.015697724286923</v>
+        <v>1.048043861377263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04104438067654</v>
+        <v>1.055963621261536</v>
       </c>
       <c r="J8">
-        <v>1.016606005690126</v>
+        <v>1.049796628517212</v>
       </c>
       <c r="K8">
-        <v>1.02669338231718</v>
+        <v>1.054578110748055</v>
       </c>
       <c r="L8">
-        <v>1.01302102689813</v>
+        <v>1.041892033812929</v>
       </c>
       <c r="M8">
-        <v>1.026669176726212</v>
+        <v>1.058610118895585</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054958226230147</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04968420717995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841271001331978</v>
+        <v>1.018619251879603</v>
       </c>
       <c r="D9">
-        <v>1.007921747764471</v>
+        <v>1.036976219061565</v>
       </c>
       <c r="E9">
-        <v>0.9933640880690832</v>
+        <v>1.022754794853914</v>
       </c>
       <c r="F9">
-        <v>1.006090313386321</v>
+        <v>1.041077928770761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038798342541081</v>
+        <v>1.052962498410482</v>
       </c>
       <c r="J9">
-        <v>1.010253097369669</v>
+        <v>1.043531225020819</v>
       </c>
       <c r="K9">
-        <v>1.02088759443556</v>
+        <v>1.049496574226377</v>
       </c>
       <c r="L9">
-        <v>1.006565753714735</v>
+        <v>1.035489172275007</v>
       </c>
       <c r="M9">
-        <v>1.019085346313137</v>
+        <v>1.05353793515933</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050944000670132</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046088177544688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9766343103045195</v>
+        <v>1.011482224710529</v>
       </c>
       <c r="D10">
-        <v>1.002488693626621</v>
+        <v>1.032228812277813</v>
       </c>
       <c r="E10">
-        <v>0.9874602422951276</v>
+        <v>1.017049993886109</v>
       </c>
       <c r="F10">
-        <v>0.9994087561464035</v>
+        <v>1.036403130716565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037174981890823</v>
+        <v>1.05089673197728</v>
       </c>
       <c r="J10">
-        <v>1.005806656080876</v>
+        <v>1.039247570828887</v>
       </c>
       <c r="K10">
-        <v>1.016813158856744</v>
+        <v>1.046039566495185</v>
       </c>
       <c r="L10">
-        <v>1.002059658128932</v>
+        <v>1.031118081201575</v>
       </c>
       <c r="M10">
-        <v>1.013788693895439</v>
+        <v>1.050144815898908</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04830943963351</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043660521241208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.97329949383787</v>
+        <v>1.009039142541571</v>
       </c>
       <c r="D11">
-        <v>1.000076156296972</v>
+        <v>1.030836065490732</v>
       </c>
       <c r="E11">
-        <v>0.9848426108474001</v>
+        <v>1.01522349118863</v>
       </c>
       <c r="F11">
-        <v>0.9964438085049373</v>
+        <v>1.035399970977067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036440454794059</v>
+        <v>1.050456698502058</v>
       </c>
       <c r="J11">
-        <v>1.003826832927646</v>
+        <v>1.038040658143125</v>
       </c>
       <c r="K11">
-        <v>1.014996636564652</v>
+        <v>1.045198981808378</v>
       </c>
       <c r="L11">
-        <v>1.000056148401553</v>
+        <v>1.029863914022912</v>
       </c>
       <c r="M11">
-        <v>1.011433102450287</v>
+        <v>1.049683810059787</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.048375891387085</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043098689543532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9720464520327012</v>
+        <v>1.008383357870749</v>
       </c>
       <c r="D12">
-        <v>0.999170583262085</v>
+        <v>1.030565218810285</v>
       </c>
       <c r="E12">
-        <v>0.9838606226223833</v>
+        <v>1.014793495429488</v>
       </c>
       <c r="F12">
-        <v>0.9953311460938568</v>
+        <v>1.035405190675885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036162713802639</v>
+        <v>1.050466314821063</v>
       </c>
       <c r="J12">
-        <v>1.003082850710506</v>
+        <v>1.037837108402346</v>
       </c>
       <c r="K12">
-        <v>1.014313690857408</v>
+        <v>1.045129365615001</v>
       </c>
       <c r="L12">
-        <v>0.9993037002570668</v>
+        <v>1.02964265944659</v>
       </c>
       <c r="M12">
-        <v>1.010548343962762</v>
+        <v>1.049884127910279</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048857352541495</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043049469636025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9723158956154355</v>
+        <v>1.009085134363325</v>
       </c>
       <c r="D13">
-        <v>0.9993652666774135</v>
+        <v>1.03116615034803</v>
       </c>
       <c r="E13">
-        <v>0.984071708757796</v>
+        <v>1.015431337803667</v>
       </c>
       <c r="F13">
-        <v>0.9955703389732512</v>
+        <v>1.036217156501884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036222514788417</v>
+        <v>1.050843106670043</v>
       </c>
       <c r="J13">
-        <v>1.003242832791646</v>
+        <v>1.038418676340446</v>
       </c>
       <c r="K13">
-        <v>1.014460562463761</v>
+        <v>1.04567754676597</v>
       </c>
       <c r="L13">
-        <v>0.9994654830960041</v>
+        <v>1.030225689179595</v>
       </c>
       <c r="M13">
-        <v>1.010738578202341</v>
+        <v>1.050640080835111</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049729167269447</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043434578641484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973196214192413</v>
+        <v>1.010191378304118</v>
       </c>
       <c r="D14">
-        <v>1.000001496735041</v>
+        <v>1.031982218486754</v>
       </c>
       <c r="E14">
-        <v>0.9847616398474586</v>
+        <v>1.01636152204131</v>
       </c>
       <c r="F14">
-        <v>0.9963520703847488</v>
+        <v>1.037150437137608</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036417597642775</v>
+        <v>1.051272873430301</v>
       </c>
       <c r="J14">
-        <v>1.003765512734048</v>
+        <v>1.03918130274144</v>
       </c>
       <c r="K14">
-        <v>1.014940353653776</v>
+        <v>1.04634140302412</v>
       </c>
       <c r="L14">
-        <v>0.9999941215701874</v>
+        <v>1.030997915534278</v>
       </c>
       <c r="M14">
-        <v>1.011360170433748</v>
+        <v>1.051420281545659</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050517799280822</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043905345619041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9737366832906831</v>
+        <v>1.010764975490534</v>
       </c>
       <c r="D15">
-        <v>1.000392233411771</v>
+        <v>1.032381901381016</v>
       </c>
       <c r="E15">
-        <v>0.9851854309870794</v>
+        <v>1.016829272540533</v>
       </c>
       <c r="F15">
-        <v>0.9968321995982223</v>
+        <v>1.037570661896257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036537139795495</v>
+        <v>1.051464713561983</v>
       </c>
       <c r="J15">
-        <v>1.004086402651682</v>
+        <v>1.039548253342845</v>
       </c>
       <c r="K15">
-        <v>1.015234870082571</v>
+        <v>1.046649247656404</v>
       </c>
       <c r="L15">
-        <v>1.000318727092674</v>
+        <v>1.03137043738528</v>
       </c>
       <c r="M15">
-        <v>1.011741842899044</v>
+        <v>1.051749013720127</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050814883162842</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044128800062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.976853662811953</v>
+        <v>1.013657252208673</v>
       </c>
       <c r="D16">
-        <v>1.002647505264533</v>
+        <v>1.034284195893481</v>
       </c>
       <c r="E16">
-        <v>0.9876326352378993</v>
+        <v>1.019119973317852</v>
       </c>
       <c r="F16">
-        <v>0.9996039701946124</v>
+        <v>1.0394264591302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037223051057039</v>
+        <v>1.052283628796598</v>
       </c>
       <c r="J16">
-        <v>1.005936868790625</v>
+        <v>1.041264210420078</v>
       </c>
       <c r="K16">
-        <v>1.016932584429526</v>
+        <v>1.048025907835288</v>
       </c>
       <c r="L16">
-        <v>1.002191488861158</v>
+        <v>1.033116693791029</v>
       </c>
       <c r="M16">
-        <v>1.013943679982646</v>
+        <v>1.053083867108458</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051831547479451</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045105251897513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9787841401299463</v>
+        <v>1.015298360220517</v>
       </c>
       <c r="D17">
-        <v>1.004045817572849</v>
+        <v>1.035317797983424</v>
       </c>
       <c r="E17">
-        <v>0.9891509772480404</v>
+        <v>1.020393207702143</v>
       </c>
       <c r="F17">
-        <v>1.001323022422464</v>
+        <v>1.040357658826067</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037644736850093</v>
+        <v>1.052685052586006</v>
       </c>
       <c r="J17">
-        <v>1.007082754783362</v>
+        <v>1.042181078793721</v>
       </c>
       <c r="K17">
-        <v>1.017983278882979</v>
+        <v>1.048733674710528</v>
       </c>
       <c r="L17">
-        <v>1.003351941256849</v>
+        <v>1.03405287491333</v>
       </c>
       <c r="M17">
-        <v>1.015307893961647</v>
+        <v>1.05369323369095</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052185278003083</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045608212212101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9799014878975099</v>
+        <v>1.015994895258357</v>
       </c>
       <c r="D18">
-        <v>1.004855672367722</v>
+        <v>1.035668244458911</v>
       </c>
       <c r="E18">
-        <v>0.990030727281646</v>
+        <v>1.020884722728519</v>
       </c>
       <c r="F18">
-        <v>1.002318829831062</v>
+        <v>1.040526890984967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037887661148076</v>
+        <v>1.05274441331108</v>
       </c>
       <c r="J18">
-        <v>1.00774590226022</v>
+        <v>1.042466961880838</v>
       </c>
       <c r="K18">
-        <v>1.018591113673917</v>
+        <v>1.048898446075851</v>
       </c>
       <c r="L18">
-        <v>1.004023791209746</v>
+        <v>1.034352439938918</v>
       </c>
       <c r="M18">
-        <v>1.016097656936201</v>
+        <v>1.053680916257975</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051940156796822</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045713216211744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9802810268335616</v>
+        <v>1.015863616494854</v>
       </c>
       <c r="D19">
-        <v>1.00513084821128</v>
+        <v>1.035428964397672</v>
       </c>
       <c r="E19">
-        <v>0.9903297173164671</v>
+        <v>1.020696475885708</v>
       </c>
       <c r="F19">
-        <v>1.002657222829163</v>
+        <v>1.040022538689439</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037969981377235</v>
+        <v>1.052516177757641</v>
       </c>
       <c r="J19">
-        <v>1.007971143346999</v>
+        <v>1.042209220551729</v>
       </c>
       <c r="K19">
-        <v>1.018797529005166</v>
+        <v>1.048601521635115</v>
       </c>
       <c r="L19">
-        <v>1.004252034286781</v>
+        <v>1.034104593696533</v>
       </c>
       <c r="M19">
-        <v>1.016365948151795</v>
+        <v>1.053123392409143</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051177374631801</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045509602989056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785779199929951</v>
+        <v>1.013383610948088</v>
       </c>
       <c r="D20">
-        <v>1.003896390446039</v>
+        <v>1.033511526766977</v>
       </c>
       <c r="E20">
-        <v>0.9889886844111248</v>
+        <v>1.018576181639814</v>
       </c>
       <c r="F20">
-        <v>1.001139300661726</v>
+        <v>1.037656070285536</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037599809281025</v>
+        <v>1.051469853607371</v>
       </c>
       <c r="J20">
-        <v>1.006960355681936</v>
+        <v>1.040408190138243</v>
       </c>
       <c r="K20">
-        <v>1.017871070795372</v>
+        <v>1.046989644659382</v>
       </c>
       <c r="L20">
-        <v>1.003227957925644</v>
+        <v>1.032300070831264</v>
       </c>
       <c r="M20">
-        <v>1.015162146380222</v>
+        <v>1.051067594739207</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049029287763252</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044373852183552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972937384629307</v>
+        <v>1.007876322824737</v>
       </c>
       <c r="D21">
-        <v>0.9998144073369933</v>
+        <v>1.029812925670132</v>
       </c>
       <c r="E21">
-        <v>0.9845587436992382</v>
+        <v>1.014163187771947</v>
       </c>
       <c r="F21">
-        <v>0.9961221879634562</v>
+        <v>1.033949013774537</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036360287320735</v>
+        <v>1.04980916960494</v>
       </c>
       <c r="J21">
-        <v>1.003611836948495</v>
+        <v>1.037048389774063</v>
       </c>
       <c r="K21">
-        <v>1.014799296681716</v>
+        <v>1.044250671126718</v>
       </c>
       <c r="L21">
-        <v>0.9998386818851996</v>
+        <v>1.028881112115814</v>
       </c>
       <c r="M21">
-        <v>1.011177400998909</v>
+        <v>1.048314544483794</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046810084474772</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042440539403312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9693075574059781</v>
+        <v>1.004361996310804</v>
       </c>
       <c r="D22">
-        <v>0.9971929945303644</v>
+        <v>1.027465688976789</v>
       </c>
       <c r="E22">
-        <v>0.9817171753809534</v>
+        <v>1.011358191742229</v>
       </c>
       <c r="F22">
-        <v>0.9929017624785439</v>
+        <v>1.031627759652723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035552486488544</v>
+        <v>1.048751016028815</v>
       </c>
       <c r="J22">
-        <v>1.001456584839233</v>
+        <v>1.034911923603547</v>
       </c>
       <c r="K22">
-        <v>1.012820264596866</v>
+        <v>1.042511998918444</v>
       </c>
       <c r="L22">
-        <v>0.9976597325102977</v>
+        <v>1.026707949445358</v>
       </c>
       <c r="M22">
-        <v>1.008615160633705</v>
+        <v>1.046597666100667</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045451300853916</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041197880424169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9712399716243812</v>
+        <v>1.006214459139856</v>
       </c>
       <c r="D23">
-        <v>0.998588013111867</v>
+        <v>1.028695487045716</v>
       </c>
       <c r="E23">
-        <v>0.9832290503897581</v>
+        <v>1.012832893206927</v>
       </c>
       <c r="F23">
-        <v>0.9946154219358362</v>
+        <v>1.032847909777186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035983470404763</v>
+        <v>1.049302723906</v>
       </c>
       <c r="J23">
-        <v>1.002603996732114</v>
+        <v>1.036031902007796</v>
       </c>
       <c r="K23">
-        <v>1.013874032333347</v>
+        <v>1.043418975121084</v>
       </c>
       <c r="L23">
-        <v>0.9988195203164891</v>
+        <v>1.027847318067139</v>
       </c>
       <c r="M23">
-        <v>1.009979004038595</v>
+        <v>1.04749715342533</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.046163179571279</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041829596615929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9786711287242402</v>
+        <v>1.013378195711506</v>
       </c>
       <c r="D24">
-        <v>1.003963927892394</v>
+        <v>1.033476244507242</v>
       </c>
       <c r="E24">
-        <v>0.9890620356732269</v>
+        <v>1.018556478282824</v>
       </c>
       <c r="F24">
-        <v>1.001222337858382</v>
+        <v>1.037590965850243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037620119492134</v>
+        <v>1.05143242569623</v>
       </c>
       <c r="J24">
-        <v>1.007015678695541</v>
+        <v>1.040370813824919</v>
       </c>
       <c r="K24">
-        <v>1.017921788280026</v>
+        <v>1.046939922438512</v>
       </c>
       <c r="L24">
-        <v>1.003283996148261</v>
+        <v>1.03226537382291</v>
       </c>
       <c r="M24">
-        <v>1.015228021823694</v>
+        <v>1.050988605688014</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048926403282536</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044311600862336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986956862686351</v>
+        <v>1.021384012876316</v>
       </c>
       <c r="D25">
-        <v>1.009977857063313</v>
+        <v>1.038844225939095</v>
       </c>
       <c r="E25">
-        <v>0.9956019612205084</v>
+        <v>1.024982118794978</v>
       </c>
       <c r="F25">
-        <v>1.00862084666807</v>
+        <v>1.042930569146997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039400660884047</v>
+        <v>1.053779984562216</v>
       </c>
       <c r="J25">
-        <v>1.011931297128487</v>
+        <v>1.045212545244795</v>
       </c>
       <c r="K25">
-        <v>1.022423229393361</v>
+        <v>1.050868042022023</v>
       </c>
       <c r="L25">
-        <v>1.008268936912412</v>
+        <v>1.037204613970095</v>
       </c>
       <c r="M25">
-        <v>1.021086793069226</v>
+        <v>1.054897089979472</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.05201966451558</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047086087680467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027495726672369</v>
+        <v>1.025324297111468</v>
       </c>
       <c r="D2">
-        <v>1.042940808365237</v>
+        <v>1.040295822657063</v>
       </c>
       <c r="E2">
-        <v>1.029901158471584</v>
+        <v>1.028096542508772</v>
       </c>
       <c r="F2">
-        <v>1.047028705129994</v>
+        <v>1.045131557820651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055526165744575</v>
+        <v>1.054268007555682</v>
       </c>
       <c r="J2">
-        <v>1.048884033904958</v>
+        <v>1.046773074028989</v>
       </c>
       <c r="K2">
-        <v>1.05383264890277</v>
+        <v>1.051220928456584</v>
       </c>
       <c r="L2">
-        <v>1.040959065763819</v>
+        <v>1.039177847897594</v>
       </c>
       <c r="M2">
-        <v>1.057869545123389</v>
+        <v>1.055996004773546</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054372122970991</v>
+        <v>1.052889367779204</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049134542035945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047296534673682</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025369332086094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031840640671496</v>
+        <v>1.029461862829648</v>
       </c>
       <c r="D3">
-        <v>1.045873444803815</v>
+        <v>1.042984813741993</v>
       </c>
       <c r="E3">
-        <v>1.033414228329043</v>
+        <v>1.031417708281462</v>
       </c>
       <c r="F3">
-        <v>1.04996135198644</v>
+        <v>1.047886425614599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056761831861213</v>
+        <v>1.055365594314832</v>
       </c>
       <c r="J3">
-        <v>1.051499391162002</v>
+        <v>1.049180364636898</v>
       </c>
       <c r="K3">
-        <v>1.055951175918496</v>
+        <v>1.053095722074811</v>
       </c>
       <c r="L3">
-        <v>1.043636699611727</v>
+        <v>1.041663776012564</v>
       </c>
       <c r="M3">
-        <v>1.059992516312065</v>
+        <v>1.05794117015173</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056052278930869</v>
+        <v>1.054428808312513</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050629857604836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048619237989515</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025791241395977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034599923971387</v>
+        <v>1.032091319698917</v>
       </c>
       <c r="D4">
-        <v>1.047740212238051</v>
+        <v>1.044698161307682</v>
       </c>
       <c r="E4">
-        <v>1.035650422466725</v>
+        <v>1.033533758123044</v>
       </c>
       <c r="F4">
-        <v>1.051830679768765</v>
+        <v>1.049644044942726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057538982729909</v>
+        <v>1.05605590268487</v>
       </c>
       <c r="J4">
-        <v>1.053158141187332</v>
+        <v>1.050708285373914</v>
       </c>
       <c r="K4">
-        <v>1.057294674730862</v>
+        <v>1.054285465473351</v>
       </c>
       <c r="L4">
-        <v>1.045336806588033</v>
+        <v>1.043243629362968</v>
       </c>
       <c r="M4">
-        <v>1.061341348664193</v>
+        <v>1.05917807249859</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057119766158625</v>
+        <v>1.055407714509744</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051580682050838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049461430788684</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026056558700417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035753151804351</v>
+        <v>1.033190593708605</v>
       </c>
       <c r="D5">
-        <v>1.048523622140182</v>
+        <v>1.045417699827387</v>
       </c>
       <c r="E5">
-        <v>1.036587025923925</v>
+        <v>1.034420387384281</v>
       </c>
       <c r="F5">
-        <v>1.052614310908504</v>
+        <v>1.050381201346854</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057864057930279</v>
+        <v>1.056344766459627</v>
       </c>
       <c r="J5">
-        <v>1.053852851380758</v>
+        <v>1.051348512547956</v>
       </c>
       <c r="K5">
-        <v>1.05785884361728</v>
+        <v>1.054785563680955</v>
       </c>
       <c r="L5">
-        <v>1.046049007220878</v>
+        <v>1.043905761771985</v>
       </c>
       <c r="M5">
-        <v>1.061906899232813</v>
+        <v>1.059697012868017</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057567351367941</v>
+        <v>1.055818412638501</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051986642145068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049822803498184</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026168248718841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035952545912845</v>
+        <v>1.033380539152386</v>
       </c>
       <c r="D6">
-        <v>1.048661799319527</v>
+        <v>1.045544783005363</v>
       </c>
       <c r="E6">
-        <v>1.036749994502447</v>
+        <v>1.034574539546666</v>
       </c>
       <c r="F6">
-        <v>1.052750790705953</v>
+        <v>1.050509583777525</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057922737923792</v>
+        <v>1.05639705520093</v>
       </c>
       <c r="J6">
-        <v>1.053975358483731</v>
+        <v>1.051461484864906</v>
       </c>
       <c r="K6">
-        <v>1.057960181951001</v>
+        <v>1.054875775008207</v>
       </c>
       <c r="L6">
-        <v>1.046174289849769</v>
+        <v>1.044022214075237</v>
       </c>
       <c r="M6">
-        <v>1.062006752725473</v>
+        <v>1.059788746930043</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057646376893747</v>
+        <v>1.05589101249367</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052066899905488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049896066628454</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026189279657071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034632841877918</v>
+        <v>1.032122279768471</v>
       </c>
       <c r="D7">
-        <v>1.047769733183555</v>
+        <v>1.04472565168191</v>
       </c>
       <c r="E7">
-        <v>1.035679763355768</v>
+        <v>1.033561103908164</v>
       </c>
       <c r="F7">
-        <v>1.051855443054627</v>
+        <v>1.0496672519368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057555251330897</v>
+        <v>1.056070733419042</v>
       </c>
       <c r="J7">
-        <v>1.053184508360545</v>
+        <v>1.05073271437746</v>
       </c>
       <c r="K7">
-        <v>1.057321058462139</v>
+        <v>1.054309827449654</v>
       </c>
       <c r="L7">
-        <v>1.045362959228851</v>
+        <v>1.043267799625539</v>
       </c>
       <c r="M7">
-        <v>1.061363042952078</v>
+        <v>1.059198218061799</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057136935348529</v>
+        <v>1.055423658051133</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051619133457661</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049500460636062</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.0260644945443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028997397726009</v>
+        <v>1.026753272229577</v>
       </c>
       <c r="D8">
-        <v>1.04396244656331</v>
+        <v>1.041232620561867</v>
       </c>
       <c r="E8">
-        <v>1.031117698772412</v>
+        <v>1.029245551069252</v>
       </c>
       <c r="F8">
-        <v>1.048043861377263</v>
+        <v>1.046084650258615</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055963621261536</v>
+        <v>1.054656965124992</v>
       </c>
       <c r="J8">
-        <v>1.049796628517212</v>
+        <v>1.047612892023505</v>
       </c>
       <c r="K8">
-        <v>1.054578110748055</v>
+        <v>1.051881598828413</v>
       </c>
       <c r="L8">
-        <v>1.041892033812929</v>
+        <v>1.040043425179204</v>
       </c>
       <c r="M8">
-        <v>1.058610118895585</v>
+        <v>1.056674564821546</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054958226230147</v>
+        <v>1.053426393343555</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04968420717995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047788523838067</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025521696587646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018619251879603</v>
+        <v>1.016882498069799</v>
       </c>
       <c r="D9">
-        <v>1.036976219061565</v>
+        <v>1.034836587489714</v>
       </c>
       <c r="E9">
-        <v>1.022754794853914</v>
+        <v>1.021352177118865</v>
       </c>
       <c r="F9">
-        <v>1.041077928770761</v>
+        <v>1.039550931510266</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052962498410482</v>
+        <v>1.051991139859204</v>
       </c>
       <c r="J9">
-        <v>1.043531225020819</v>
+        <v>1.041852860571115</v>
       </c>
       <c r="K9">
-        <v>1.049496574226377</v>
+        <v>1.04738866459694</v>
       </c>
       <c r="L9">
-        <v>1.035489172275007</v>
+        <v>1.034108074997571</v>
       </c>
       <c r="M9">
-        <v>1.05353793515933</v>
+        <v>1.052033334077663</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050944000670132</v>
+        <v>1.049753225776982</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046088177544688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044608386976769</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024494157814724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011482224710529</v>
+        <v>1.01009786983504</v>
       </c>
       <c r="D10">
-        <v>1.032228812277813</v>
+        <v>1.03049518682721</v>
       </c>
       <c r="E10">
-        <v>1.017049993886109</v>
+        <v>1.015971516628414</v>
       </c>
       <c r="F10">
-        <v>1.036403130716565</v>
+        <v>1.035174553514218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05089673197728</v>
+        <v>1.050154299846546</v>
       </c>
       <c r="J10">
-        <v>1.039247570828887</v>
+        <v>1.037916499307877</v>
       </c>
       <c r="K10">
-        <v>1.046039566495185</v>
+        <v>1.044334837825347</v>
       </c>
       <c r="L10">
-        <v>1.031118081201575</v>
+        <v>1.030058266405488</v>
       </c>
       <c r="M10">
-        <v>1.050144815898908</v>
+        <v>1.048936492521704</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04830943963351</v>
+        <v>1.047353200579621</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043660521241208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042467487761856</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023793810485645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009039142541571</v>
+        <v>1.00770484841637</v>
       </c>
       <c r="D11">
-        <v>1.030836065490732</v>
+        <v>1.029176182793356</v>
       </c>
       <c r="E11">
-        <v>1.01522349118863</v>
+        <v>1.01417955890283</v>
       </c>
       <c r="F11">
-        <v>1.035399970977067</v>
+        <v>1.034222327028629</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050456698502058</v>
+        <v>1.049738551441071</v>
       </c>
       <c r="J11">
-        <v>1.038040658143125</v>
+        <v>1.036760572705781</v>
       </c>
       <c r="K11">
-        <v>1.045198981808378</v>
+        <v>1.043568084633789</v>
       </c>
       <c r="L11">
-        <v>1.029863914022912</v>
+        <v>1.028838933673371</v>
       </c>
       <c r="M11">
-        <v>1.049683810059787</v>
+        <v>1.048526484326823</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048375891387085</v>
+        <v>1.047460461260469</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043098689543532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041961085430749</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023697436654263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008383357870749</v>
+        <v>1.007025077116899</v>
       </c>
       <c r="D12">
-        <v>1.030565218810285</v>
+        <v>1.028890935763564</v>
       </c>
       <c r="E12">
-        <v>1.014793495429488</v>
+        <v>1.013718405142719</v>
       </c>
       <c r="F12">
-        <v>1.035405190675885</v>
+        <v>1.034214177099389</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050466314821063</v>
+        <v>1.049726363695185</v>
       </c>
       <c r="J12">
-        <v>1.037837108402346</v>
+        <v>1.036535070384886</v>
       </c>
       <c r="K12">
-        <v>1.045129365615001</v>
+        <v>1.043484801177421</v>
       </c>
       <c r="L12">
-        <v>1.02964265944659</v>
+        <v>1.028587418468088</v>
       </c>
       <c r="M12">
-        <v>1.049884127910279</v>
+        <v>1.0487139867179</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048857352541495</v>
+        <v>1.047932092628957</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043049469636025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041902203564973</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023738946626954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009085134363325</v>
+        <v>1.007642470109204</v>
       </c>
       <c r="D13">
-        <v>1.03116615034803</v>
+        <v>1.029406834272466</v>
       </c>
       <c r="E13">
-        <v>1.015431337803667</v>
+        <v>1.014270746508567</v>
       </c>
       <c r="F13">
-        <v>1.036217156501884</v>
+        <v>1.034961097175124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050843106670043</v>
+        <v>1.050043254796192</v>
       </c>
       <c r="J13">
-        <v>1.038418676340446</v>
+        <v>1.037035420267182</v>
       </c>
       <c r="K13">
-        <v>1.04567754676597</v>
+        <v>1.043949310854913</v>
       </c>
       <c r="L13">
-        <v>1.030225689179595</v>
+        <v>1.029086421458583</v>
       </c>
       <c r="M13">
-        <v>1.050640080835111</v>
+        <v>1.049405917834057</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049729167269447</v>
+        <v>1.048753524671401</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043434578641484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042227905951512</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023899831638815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010191378304118</v>
+        <v>1.008663162051853</v>
       </c>
       <c r="D14">
-        <v>1.031982218486754</v>
+        <v>1.030132075930095</v>
       </c>
       <c r="E14">
-        <v>1.01636152204131</v>
+        <v>1.015117329329931</v>
       </c>
       <c r="F14">
-        <v>1.037150437137608</v>
+        <v>1.035826039426048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051272873430301</v>
+        <v>1.050414365865626</v>
       </c>
       <c r="J14">
-        <v>1.03918130274144</v>
+        <v>1.037715077939876</v>
       </c>
       <c r="K14">
-        <v>1.04634140302412</v>
+        <v>1.044523525086106</v>
       </c>
       <c r="L14">
-        <v>1.030997915534278</v>
+        <v>1.029776279810686</v>
       </c>
       <c r="M14">
-        <v>1.051420281545659</v>
+        <v>1.050118668101734</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050517799280822</v>
+        <v>1.049488972005074</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043905345619041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04263542659586</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02406670821039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010764975490534</v>
+        <v>1.009201957581725</v>
       </c>
       <c r="D15">
-        <v>1.032381901381016</v>
+        <v>1.030493336631684</v>
       </c>
       <c r="E15">
-        <v>1.016829272540533</v>
+        <v>1.015552065228859</v>
       </c>
       <c r="F15">
-        <v>1.037570661896257</v>
+        <v>1.03621771287137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051464713561983</v>
+        <v>1.050582999168813</v>
       </c>
       <c r="J15">
-        <v>1.039548253342845</v>
+        <v>1.038048067870478</v>
       </c>
       <c r="K15">
-        <v>1.046649247656404</v>
+        <v>1.044793362300566</v>
       </c>
       <c r="L15">
-        <v>1.03137043738528</v>
+        <v>1.030116200846961</v>
       </c>
       <c r="M15">
-        <v>1.051749013720127</v>
+        <v>1.050419158671063</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050814883162842</v>
+        <v>1.049763760342812</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044128800062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042832579740002</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02413695617001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013657252208673</v>
+        <v>1.011961408709213</v>
       </c>
       <c r="D16">
-        <v>1.034284195893481</v>
+        <v>1.032239989840791</v>
       </c>
       <c r="E16">
-        <v>1.019119973317852</v>
+        <v>1.017722764576215</v>
       </c>
       <c r="F16">
-        <v>1.0394264591302</v>
+        <v>1.03796002304237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052283628796598</v>
+        <v>1.051317233027307</v>
       </c>
       <c r="J16">
-        <v>1.041264210420078</v>
+        <v>1.039633065657715</v>
       </c>
       <c r="K16">
-        <v>1.048025907835288</v>
+        <v>1.046015515551439</v>
       </c>
       <c r="L16">
-        <v>1.033116693791029</v>
+        <v>1.031743475466417</v>
       </c>
       <c r="M16">
-        <v>1.053083867108458</v>
+        <v>1.051641362824568</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051831547479451</v>
+        <v>1.05069135386895</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045105251897513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043700088635386</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024410631824547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015298360220517</v>
+        <v>1.013545288439243</v>
       </c>
       <c r="D17">
-        <v>1.035317797983424</v>
+        <v>1.03320166538778</v>
       </c>
       <c r="E17">
-        <v>1.020393207702143</v>
+        <v>1.018947450893315</v>
       </c>
       <c r="F17">
-        <v>1.040357658826067</v>
+        <v>1.038839811037845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052685052586006</v>
+        <v>1.051684177528094</v>
       </c>
       <c r="J17">
-        <v>1.042181078793721</v>
+        <v>1.040492711597976</v>
       </c>
       <c r="K17">
-        <v>1.048733674710528</v>
+        <v>1.046651558850545</v>
       </c>
       <c r="L17">
-        <v>1.03405287491333</v>
+        <v>1.032631223136953</v>
       </c>
       <c r="M17">
-        <v>1.05369323369095</v>
+        <v>1.05219946525307</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052185278003083</v>
+        <v>1.05100444775584</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045608212212101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044152585596232</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024532409454337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015994895258357</v>
+        <v>1.014247193895357</v>
       </c>
       <c r="D18">
-        <v>1.035668244458911</v>
+        <v>1.033548684561663</v>
       </c>
       <c r="E18">
-        <v>1.020884722728519</v>
+        <v>1.019450462345358</v>
       </c>
       <c r="F18">
-        <v>1.040526890984967</v>
+        <v>1.039008537308322</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05274441331108</v>
+        <v>1.05175142541659</v>
       </c>
       <c r="J18">
-        <v>1.042466961880838</v>
+        <v>1.040782558073962</v>
       </c>
       <c r="K18">
-        <v>1.048898446075851</v>
+        <v>1.046812405086756</v>
       </c>
       <c r="L18">
-        <v>1.034352439938918</v>
+        <v>1.032941694124454</v>
       </c>
       <c r="M18">
-        <v>1.053680916257975</v>
+        <v>1.052186270233721</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051940156796822</v>
+        <v>1.050758390849975</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045713216211744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044253674106195</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024524437594162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015863616494854</v>
+        <v>1.014174029683564</v>
       </c>
       <c r="D19">
-        <v>1.035428964397672</v>
+        <v>1.033364530140964</v>
       </c>
       <c r="E19">
-        <v>1.020696475885708</v>
+        <v>1.01932374448455</v>
       </c>
       <c r="F19">
-        <v>1.040022538689439</v>
+        <v>1.038546924776277</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052516177757641</v>
+        <v>1.051566447257682</v>
       </c>
       <c r="J19">
-        <v>1.042209220551729</v>
+        <v>1.040580487344565</v>
       </c>
       <c r="K19">
-        <v>1.048601521635115</v>
+        <v>1.046569577990164</v>
       </c>
       <c r="L19">
-        <v>1.034104593696533</v>
+        <v>1.032754256852073</v>
       </c>
       <c r="M19">
-        <v>1.053123392409143</v>
+        <v>1.051670723737199</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051177374631801</v>
+        <v>1.050028431216439</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045509602989056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044088937202907</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024411038664632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013383610948088</v>
+        <v>1.011902119060429</v>
       </c>
       <c r="D20">
-        <v>1.033511526766977</v>
+        <v>1.031667501984401</v>
       </c>
       <c r="E20">
-        <v>1.018576181639814</v>
+        <v>1.01740772816841</v>
       </c>
       <c r="F20">
-        <v>1.037656070285536</v>
+        <v>1.036345958351076</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051469853607371</v>
+        <v>1.050664071362779</v>
       </c>
       <c r="J20">
-        <v>1.040408190138243</v>
+        <v>1.038981820275812</v>
       </c>
       <c r="K20">
-        <v>1.046989644659382</v>
+        <v>1.045175470049363</v>
       </c>
       <c r="L20">
-        <v>1.032300070831264</v>
+        <v>1.031151237492052</v>
       </c>
       <c r="M20">
-        <v>1.051067594739207</v>
+        <v>1.049778459501251</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049029287763252</v>
+        <v>1.048009084237109</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044373852183552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043107550220217</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023994752765742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007876322824737</v>
+        <v>1.006684987137088</v>
       </c>
       <c r="D21">
-        <v>1.029812925670132</v>
+        <v>1.028297576340146</v>
       </c>
       <c r="E21">
-        <v>1.014163187771947</v>
+        <v>1.013263303617968</v>
       </c>
       <c r="F21">
-        <v>1.033949013774537</v>
+        <v>1.03288169092301</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04980916960494</v>
+        <v>1.049191973962579</v>
       </c>
       <c r="J21">
-        <v>1.037048389774063</v>
+        <v>1.03590584651597</v>
       </c>
       <c r="K21">
-        <v>1.044250671126718</v>
+        <v>1.042761967810564</v>
       </c>
       <c r="L21">
-        <v>1.028881112115814</v>
+        <v>1.027997681322124</v>
       </c>
       <c r="M21">
-        <v>1.048314544483794</v>
+        <v>1.047265785057508</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046810084474772</v>
+        <v>1.045980068422116</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042440539403312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041404692058201</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023420927610253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004361996310804</v>
+        <v>1.003355774934353</v>
       </c>
       <c r="D22">
-        <v>1.027465688976789</v>
+        <v>1.026158859652638</v>
       </c>
       <c r="E22">
-        <v>1.011358191742229</v>
+        <v>1.010628995638414</v>
       </c>
       <c r="F22">
-        <v>1.031627759652723</v>
+        <v>1.03071480738874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048751016028815</v>
+        <v>1.048252990763577</v>
       </c>
       <c r="J22">
-        <v>1.034911923603547</v>
+        <v>1.033949382883887</v>
       </c>
       <c r="K22">
-        <v>1.042511998918444</v>
+        <v>1.041229325873088</v>
       </c>
       <c r="L22">
-        <v>1.026707949445358</v>
+        <v>1.025992790375075</v>
       </c>
       <c r="M22">
-        <v>1.046597666100667</v>
+        <v>1.045701404191077</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045451300853916</v>
+        <v>1.04474197413089</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041197880424169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040306403316563</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023055833438334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006214459139856</v>
+        <v>1.005111113613532</v>
       </c>
       <c r="D23">
-        <v>1.028695487045716</v>
+        <v>1.027279067443474</v>
       </c>
       <c r="E23">
-        <v>1.012832893206927</v>
+        <v>1.012014426842156</v>
       </c>
       <c r="F23">
-        <v>1.032847909777186</v>
+        <v>1.031853888128741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049302723906</v>
+        <v>1.048742451491641</v>
       </c>
       <c r="J23">
-        <v>1.036031902007796</v>
+        <v>1.034975009142771</v>
       </c>
       <c r="K23">
-        <v>1.043418975121084</v>
+        <v>1.042028059262271</v>
       </c>
       <c r="L23">
-        <v>1.027847318067139</v>
+        <v>1.027044186343613</v>
       </c>
       <c r="M23">
-        <v>1.04749715342533</v>
+        <v>1.046520834046533</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046163179571279</v>
+        <v>1.045390493845946</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041829596615929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040860639152561</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023243918769134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013378195711506</v>
+        <v>1.011904640193582</v>
       </c>
       <c r="D24">
-        <v>1.033476244507242</v>
+        <v>1.031639337496853</v>
       </c>
       <c r="E24">
-        <v>1.018556478282824</v>
+        <v>1.017396675040128</v>
       </c>
       <c r="F24">
-        <v>1.037590965850243</v>
+        <v>1.036286514243845</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05143242569623</v>
+        <v>1.050632736441265</v>
       </c>
       <c r="J24">
-        <v>1.040370813824919</v>
+        <v>1.038952008527396</v>
       </c>
       <c r="K24">
-        <v>1.046939922438512</v>
+        <v>1.045132714744003</v>
       </c>
       <c r="L24">
-        <v>1.03226537382291</v>
+        <v>1.031125021239396</v>
       </c>
       <c r="M24">
-        <v>1.050988605688014</v>
+        <v>1.04970501671687</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048926403282536</v>
+        <v>1.047910539674796</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044311600862336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043047542891128</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023973715039083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021384012876316</v>
+        <v>1.019509061378206</v>
       </c>
       <c r="D25">
-        <v>1.038844225939095</v>
+        <v>1.036545371210284</v>
       </c>
       <c r="E25">
-        <v>1.024982118794978</v>
+        <v>1.023451327241587</v>
       </c>
       <c r="F25">
-        <v>1.042930569146997</v>
+        <v>1.041286562869228</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053779984562216</v>
+        <v>1.052717534451104</v>
       </c>
       <c r="J25">
-        <v>1.045212545244795</v>
+        <v>1.043397244545349</v>
       </c>
       <c r="K25">
-        <v>1.050868042022023</v>
+        <v>1.048601670926569</v>
       </c>
       <c r="L25">
-        <v>1.037204613970095</v>
+        <v>1.035696181257293</v>
       </c>
       <c r="M25">
-        <v>1.054897089979472</v>
+        <v>1.053276066297046</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05201966451558</v>
+        <v>1.050736751941472</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047086087680467</v>
+        <v>1.045497070766483</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024777882060808</v>
       </c>
     </row>
   </sheetData>
